--- a/src/static/enriched_data/enriched_data.xlsx
+++ b/src/static/enriched_data/enriched_data.xlsx
@@ -503,3693 +503,3693 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19844146</v>
+        <v>15094302.18303862</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://blockchain.info/</t>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1640248960295.137</v>
+        <v>2502723147.548345</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>82656.5658353419</v>
+        <v>165.8058197854711</v>
       </c>
       <c r="J2" t="n">
-        <v>5480192765.202207</v>
+        <v>121158203.7110956</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3267271217607228</v>
+        <v>-1.512174871939255</v>
       </c>
       <c r="L2" t="n">
-        <v>82855.05914595327</v>
+        <v>166.4288144080013</v>
       </c>
       <c r="M2" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>120654453.5456346</v>
+        <v>8530799349.038621</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://etherscan.io/</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>219789619617.6456</v>
+        <v>1552633403.390302</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I3" t="n">
-        <v>1821.645311538505</v>
+        <v>0.1820032730655277</v>
       </c>
       <c r="J3" t="n">
-        <v>4143727965.963849</v>
+        <v>26261152.05350428</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1441008874874965</v>
+        <v>0.0012023716573866</v>
       </c>
       <c r="L3" t="n">
-        <v>1822.756274730674</v>
+        <v>0.1833981648223011</v>
       </c>
       <c r="M3" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tether</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tether</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>144182349120.787</v>
+        <v>604052367.6645604</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.omniexplorer.info/asset/31</t>
+          <t>https://explorer.aptoslabs.com/</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>144572826467.6962</v>
+        <v>3247459454.593124</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>USDT</t>
+          <t>APT</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.002708218788849</v>
+        <v>5.376122383476011</v>
       </c>
       <c r="J4" t="n">
-        <v>16843129596.50904</v>
+        <v>39045032.8963454</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0222109053592891</v>
+        <v>3.719168620078743</v>
       </c>
       <c r="L4" t="n">
-        <v>1.000288850598314</v>
+        <v>5.271026654163057</v>
       </c>
       <c r="M4" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>xrp</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>xrp</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58205697378</v>
+        <v>4617913336</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://xrpcharts.ripple.com/#/graph/</t>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>125186112383.7746</v>
+        <v>1547508740.962107</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>XRP</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>100000000000</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.150753586385018</v>
+        <v>0.3351099573259959</v>
       </c>
       <c r="J5" t="n">
-        <v>1117309220.309842</v>
+        <v>52649310.31985822</v>
       </c>
       <c r="K5" t="n">
-        <v>1.49260330640572</v>
+        <v>1.408937611670383</v>
       </c>
       <c r="L5" t="n">
-        <v>2.157225977451223</v>
+        <v>0.3329561775554554</v>
       </c>
       <c r="M5" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>binance-coin</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bnb</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>144006830</v>
+        <v>414849355.3863751</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xB8c77482e45F1F44dE1745F52C74426C631bDD52</t>
+          <t>https://avascan.info/</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>87021319706.73978</v>
+        <v>7992201792.645712</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>144006830</v>
+        <v>715748719</v>
       </c>
       <c r="I6" t="n">
-        <v>604.2860585622208</v>
+        <v>19.2653108625469</v>
       </c>
       <c r="J6" t="n">
-        <v>232256040.5357347</v>
+        <v>118897745.6813084</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4175229073696857</v>
+        <v>-2.904454095650301</v>
       </c>
       <c r="L6" t="n">
-        <v>605.2224401109413</v>
+        <v>19.49728095092712</v>
       </c>
       <c r="M6" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>solana</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>solana</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>512293263.8307307</v>
+        <v>107480000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>64516403178.55221</v>
+        <v>792133992.3010215</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>125.9364659533556</v>
+        <v>7.370059474330307</v>
       </c>
       <c r="J7" t="n">
-        <v>949037846.0353343</v>
+        <v>88079938.16240172</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8281400814038677</v>
+        <v>-4.703430881568</v>
       </c>
       <c r="L7" t="n">
-        <v>124.8376673155125</v>
+        <v>7.456875737744831</v>
       </c>
       <c r="M7" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>usd-coin</t>
+          <t>binance-coin</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>usdc</t>
+          <t>bnb</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60236504303.70195</v>
+        <v>144006830</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
+          <t>https://etherscan.io/token/0xB8c77482e45F1F44dE1745F52C74426C631bDD52</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>60276486109.2381</v>
+        <v>87094124885.83772</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>144006830</v>
       </c>
       <c r="I8" t="n">
-        <v>1.000663747108142</v>
+        <v>604.7916261043849</v>
       </c>
       <c r="J8" t="n">
-        <v>2624630853.477427</v>
+        <v>229928302.6426412</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0252927451770612</v>
+        <v>0.1636104082446619</v>
       </c>
       <c r="L8" t="n">
-        <v>1.001465289800131</v>
+        <v>605.3684300075689</v>
       </c>
       <c r="M8" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dogecoin</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dogecoin</t>
+          <t>four</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>148646376383.7053</v>
+        <v>381867255.144574</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://dogechain.info/chain/Dogecoin</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25302161517.13152</v>
+        <v>882787928.7271338</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>FORM</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>580000000</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1702171430793463</v>
+        <v>2.311766502191744</v>
       </c>
       <c r="J9" t="n">
-        <v>408087512.9763208</v>
+        <v>3940362.819187566</v>
       </c>
       <c r="K9" t="n">
-        <v>1.040964362603664</v>
+        <v>5.138914680705369</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1695262215959406</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35242104181.18973</v>
+        <v>19844146</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://cardanoexplorer.com/</t>
+          <t>https://blockchain.info/</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>23656821536.72506</v>
+        <v>1641207194690.05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>45000000000</v>
+        <v>21000000</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6712658646912393</v>
+        <v>82704.85384909231</v>
       </c>
       <c r="J10" t="n">
-        <v>225081866.7667561</v>
+        <v>5481135534.058089</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3753428199927294</v>
+        <v>0.4735418379954891</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6733334287048685</v>
+        <v>82865.43019757388</v>
       </c>
       <c r="M10" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tron</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tron</t>
+          <t>bitcoin cash</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>94994333997.78676</v>
+        <v>19849190.625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/</t>
+          <t>https://blockchair.com/bitcoin-cash/blocks</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>22056184654.80664</v>
+        <v>6032029266.771893</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2321842127481047</v>
+        <v>303.8929586969944</v>
       </c>
       <c r="J11" t="n">
-        <v>208562739.11023</v>
+        <v>40840706.49356946</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.145286866067239</v>
+        <v>0.5132070457444577</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2316784776949375</v>
+        <v>304.7139250436769</v>
       </c>
       <c r="M11" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>steth</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>lido staked eth</t>
+          <t>bitcoin sv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9369845.35495159</v>
+        <v>19844809.375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xae7ab96520de3a18e5e111b5eaab095312d7fe84</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>16957421840.39142</v>
+        <v>635134845.9482838</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>STETH</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1809.786735853661</v>
+        <v>32.00508676835218</v>
       </c>
       <c r="J12" t="n">
-        <v>5189605.312815937</v>
+        <v>6289934.91067226</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.4914263070772036</v>
+        <v>2.40475432569106</v>
       </c>
       <c r="L12" t="n">
-        <v>1822.794249148425</v>
+        <v>31.93017721011367</v>
       </c>
       <c r="M12" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>wrapped-bitcoin</t>
+          <t>bitget-token-new</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>wrapped bitcoin</t>
+          <t>bitget token</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>129077.40552189</v>
+        <v>1200000000</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x2260fac5e5542a773aa44fbcfedf7c193bc2c599</t>
+          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10651186259.291</v>
+        <v>5481899749.226211</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>WBTC</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>82517.82111846592</v>
+        <v>4.568249791021842</v>
       </c>
       <c r="J13" t="n">
-        <v>14127275.75649028</v>
+        <v>67146784.30220707</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6155921832794222</v>
+        <v>-0.7622214144252912</v>
       </c>
       <c r="L13" t="n">
-        <v>82969.47583589022</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2484542062.423414</v>
+        <v>8534124</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://bittensor.com/scan</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9529023335.024099</v>
+        <v>1960187670.166676</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="I14" t="n">
-        <v>3.835323812441125</v>
+        <v>229.6882105493987</v>
       </c>
       <c r="J14" t="n">
-        <v>114504995.7210948</v>
+        <v>46406660.81908858</v>
       </c>
       <c r="K14" t="n">
-        <v>2.217038838601692</v>
+        <v>0.2282403527470067</v>
       </c>
       <c r="L14" t="n">
-        <v>3.775501367354367</v>
+        <v>229.1538869533195</v>
       </c>
       <c r="M14" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>bittorrent [new]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>657099970.4527867</v>
+        <v>986061142857000</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8954351677.307913</v>
+        <v>664200063.8926384</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>13.62707667014161</v>
+        <v>6.735891265e-07</v>
       </c>
       <c r="J15" t="n">
-        <v>127343000.2173266</v>
+        <v>866759.9399415634</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8089673300476612</v>
+        <v>-0.0312148993952195</v>
       </c>
       <c r="L15" t="n">
-        <v>13.60722421698195</v>
+        <v>6.754592100999999e-07</v>
       </c>
       <c r="M15" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>unus sed leo</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>923836227.9</v>
+        <v>77894175221082.55</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8872243688.051298</v>
+        <v>891548861.194496</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.603697517057828</v>
+        <v>1.14456422276e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>4803401.850146772</v>
+        <v>39877244.68560927</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2485938492213905</v>
+        <v>1.86588879511246</v>
       </c>
       <c r="L16" t="n">
-        <v>9.53999460691908</v>
+        <v>1.1357717936e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30787176939.11807</v>
+        <v>35242104181.18973</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://dashboard.stellar.org/</t>
+          <t>https://cardanoexplorer.com/</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8290250469.957115</v>
+        <v>23691787244.09586</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>50001806812</v>
+        <v>45000000000</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2692760848567299</v>
+        <v>0.6722580218902258</v>
       </c>
       <c r="J17" t="n">
-        <v>48056494.42261275</v>
+        <v>226038813.736763</v>
       </c>
       <c r="K17" t="n">
-        <v>1.395885570263605</v>
+        <v>0.548656923749116</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2682149341125536</v>
+        <v>0.6732855680187255</v>
       </c>
       <c r="M17" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>414849355.3863751</v>
+        <v>580696175.3830049</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://avascan.info/</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7973734405.471679</v>
+        <v>1911368024.400052</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>715748719</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.22079497519103</v>
+        <v>3.291511302169998</v>
       </c>
       <c r="J18" t="n">
-        <v>118493898.7587431</v>
+        <v>29436573.13505105</v>
       </c>
       <c r="K18" t="n">
-        <v>-3.181905671683242</v>
+        <v>3.961739593383761</v>
       </c>
       <c r="L18" t="n">
-        <v>19.52214451539873</v>
+        <v>3.264691757364677</v>
       </c>
       <c r="M18" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3169845047.483888</v>
+        <v>657099970.4527867</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7505387941.352562</v>
+        <v>8967880690.436407</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10000000000</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2.367746003013641</v>
+        <v>13.64766564250022</v>
       </c>
       <c r="J19" t="n">
-        <v>523267923.8588718</v>
+        <v>126540504.6246522</v>
       </c>
       <c r="K19" t="n">
-        <v>3.891684688072917</v>
+        <v>1.122352532379778</v>
       </c>
       <c r="L19" t="n">
-        <v>2.363465344721948</v>
+        <v>13.61221517095656</v>
       </c>
       <c r="M19" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>shiba-inu</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>shiba inu</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>589250806511191.1</v>
+        <v>390934204</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
+          <t>https://www.mintscan.io/</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7398849788.831738</v>
+        <v>1687107422.514118</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>589552695333683</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.25563676911e-05</v>
+        <v>4.315578952293768</v>
       </c>
       <c r="J20" t="n">
-        <v>66746027.4177632</v>
+        <v>42938439.41112184</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.3285391408749847</v>
+        <v>0.6140060868897445</v>
       </c>
       <c r="L20" t="n">
-        <v>1.26204515749e-05</v>
+        <v>4.284810789934093</v>
       </c>
       <c r="M20" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>hedera</t>
+          <t>cronos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>42219399509.40282</v>
+        <v>26571560696</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://app.dragonglass.me/hedera/home</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7208477074.015612</v>
+        <v>2797454361.216642</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>50000000000</v>
+        <v>30263013692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1707385030999834</v>
+        <v>0.105280016978369</v>
       </c>
       <c r="J21" t="n">
-        <v>72530990.17230712</v>
+        <v>42558888.15240604</v>
       </c>
       <c r="K21" t="n">
-        <v>0.900417568006923</v>
+        <v>5.017526452191888</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1714253891323879</v>
+        <v>0.1053362722412948</v>
       </c>
       <c r="M21" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>curve dao token</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75558468.3040892</v>
+        <v>1307677861</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://explorer.litecoin.net/chain/Litecoin</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6522591761.038876</v>
+        <v>629929521.8492606</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>84000000</v>
+        <v>3030303030.299</v>
       </c>
       <c r="I22" t="n">
-        <v>86.32509244084126</v>
+        <v>0.4817161325707116</v>
       </c>
       <c r="J22" t="n">
-        <v>152449381.906238</v>
+        <v>36269525.48014412</v>
       </c>
       <c r="K22" t="n">
-        <v>1.06927903447632</v>
+        <v>-0.9146228402189618</v>
       </c>
       <c r="L22" t="n">
-        <v>85.85983828748458</v>
+        <v>0.4823167015160085</v>
       </c>
       <c r="M22" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1522267060</v>
+        <v>83733353.16057506</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6228680426.721601</v>
+        <v>1469108246.962049</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.091713333612828</v>
+        <v>17.54507841271742</v>
       </c>
       <c r="J23" t="n">
-        <v>64995038.92836352</v>
+        <v>6024614.22433076</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7655898433175277</v>
+        <v>-0.730145820512989</v>
       </c>
       <c r="L23" t="n">
-        <v>4.085252639447247</v>
+        <v>17.60723545032629</v>
       </c>
       <c r="M23" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>dogecoin</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wrapped eth</t>
+          <t>dogecoin</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3375317.5926469</v>
+        <v>148646376383.7053</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
+          <t>http://dogechain.info/chain/Dogecoin</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6141160834.478655</v>
+        <v>25346141527.26547</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>DOGE</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1819.431998890155</v>
+        <v>0.1705130131247783</v>
       </c>
       <c r="J24" t="n">
-        <v>8088748.75625</v>
+        <v>408594154.5396917</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.2459166363669385</v>
+        <v>1.307486242127688</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.1695868704628094</v>
       </c>
       <c r="M24" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mantra</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>974778351.8199997</v>
+        <v>1555739230.6061</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6107873472.734072</v>
+        <v>924549006.9580034</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>888888888</v>
+        <v>2100000000</v>
       </c>
       <c r="I25" t="n">
-        <v>6.265910051582617</v>
+        <v>0.5942827620267753</v>
       </c>
       <c r="J25" t="n">
-        <v>33493719.12760477</v>
+        <v>137928056.33557</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2855341780067822</v>
+        <v>7.994812121087144</v>
       </c>
       <c r="L25" t="n">
-        <v>6.221674696969339</v>
+        <v>0.590926346115156</v>
       </c>
       <c r="M25" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bitcoin cash</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19849190.625</v>
+        <v>5285937500</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://blockchair.com/bitcoin-cash/blocks</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6021817337.073693</v>
+        <v>1974168246.487428</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>303.3784828228327</v>
+        <v>0.3734755181058095</v>
       </c>
       <c r="J26" t="n">
-        <v>40198550.148395</v>
+        <v>67914321.77166234</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1311852222278608</v>
+        <v>1.185924762527508</v>
       </c>
       <c r="L26" t="n">
-        <v>304.6748856736965</v>
+        <v>0.3668450345000519</v>
       </c>
       <c r="M26" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bitget-token-new</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bitget token</t>
+          <t>ethena usde</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1200000000</v>
+        <v>5247294871.915874</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5481735598.327324</v>
+        <v>5247501502.827567</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4.568112998606103</v>
+        <v>1.000039378559188</v>
       </c>
       <c r="J27" t="n">
-        <v>67815971.979892</v>
+        <v>28905968.4831256</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.7814571333870057</v>
+        <v>0.0284599143268554</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5365382702.664872</v>
+        <v>120654453.5456346</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+          <t>https://etherscan.io/</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5363979615.630922</v>
+        <v>220337252974.808</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9997384926459668</v>
+        <v>1826.184168920634</v>
       </c>
       <c r="J28" t="n">
-        <v>56060096.57723889</v>
+        <v>4175180210.79431</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0684516764876065</v>
+        <v>0.4008498122672161</v>
       </c>
       <c r="L28" t="n">
-        <v>0.999444169806207</v>
+        <v>1822.546487692312</v>
       </c>
       <c r="M28" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ethena usde</t>
+          <t>ethereum classic</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5247294871.915874</v>
+        <v>151323700.0354662</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>etherscan.io</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5247412114.987248</v>
+        <v>2519332462.853556</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>210700000</v>
       </c>
       <c r="I29" t="n">
-        <v>1.000022343526376</v>
+        <v>16.64863112825745</v>
       </c>
       <c r="J29" t="n">
-        <v>28173942.87832876</v>
+        <v>22675359.03396944</v>
       </c>
       <c r="K29" t="n">
-        <v>0.038788641159392</v>
+        <v>0.6334265588766032</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>16.67357451152573</v>
       </c>
       <c r="M29" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>ethereum name service</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6773820584.991654</v>
+        <v>35599404.04</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://blockexplorer.minepi.com/</t>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5229989792.725521</v>
+        <v>569217007.7225569</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>100000000000</v>
+        <v>100000000</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7720886207575817</v>
+        <v>15.98950946153415</v>
       </c>
       <c r="J30" t="n">
-        <v>85140186.21763611</v>
+        <v>22275579.4299546</v>
       </c>
       <c r="K30" t="n">
-        <v>-4.62021718989419</v>
+        <v>1.688083321713962</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>15.9153295850566</v>
       </c>
       <c r="M30" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>sonic (prev. ftm)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>333928180</v>
+        <v>2880000000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4233479417.264953</v>
+        <v>1444885033.765069</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1000000000</v>
+        <v>3175000000</v>
       </c>
       <c r="I31" t="n">
-        <v>12.67781418526868</v>
+        <v>0.5016961922795378</v>
       </c>
       <c r="J31" t="n">
-        <v>16381054.64060062</v>
+        <v>69961352.40380713</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.9540186767550872</v>
+        <v>2.751666205628618</v>
       </c>
       <c r="L31" t="n">
-        <v>12.66676663837965</v>
+        <v>0.4916392583513938</v>
       </c>
       <c r="M31" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>artificial superintelligence alliance</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18446744.07370955</v>
+        <v>2520000000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4001361012.736164</v>
+        <v>1202451897.854906</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2630547141</v>
       </c>
       <c r="I32" t="n">
-        <v>216.9142151453674</v>
+        <v>0.4771634515297247</v>
       </c>
       <c r="J32" t="n">
-        <v>29483511.13796362</v>
+        <v>51970838.50330552</v>
       </c>
       <c r="K32" t="n">
-        <v>1.419065895465858</v>
+        <v>2.026125840427952</v>
       </c>
       <c r="L32" t="n">
-        <v>216.1829491143301</v>
+        <v>0.4731253256999419</v>
       </c>
       <c r="M32" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>628494054.71</v>
+        <v>646157090</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>https://protocol.ai</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3744779234.83471</v>
+        <v>1794346876.414898</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>5.95833676829708</v>
+        <v>2.776951463017913</v>
       </c>
       <c r="J33" t="n">
-        <v>39387583.0790073</v>
+        <v>47300983.93084389</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4524776360392461</v>
+        <v>1.642440558093933</v>
       </c>
       <c r="L33" t="n">
-        <v>5.97267852694655</v>
+        <v>2.751055996748729</v>
       </c>
       <c r="M33" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>first digital usd</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>604052367.6645604</v>
+        <v>2588088088.167816</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://explorer.aptoslabs.com/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3243768059.387003</v>
+        <v>2583280325.353663</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5.370011331845848</v>
+        <v>0.9981423496224364</v>
       </c>
       <c r="J34" t="n">
-        <v>39151839.37093796</v>
+        <v>868389933.0918236</v>
       </c>
       <c r="K34" t="n">
-        <v>3.518623721348724</v>
+        <v>-0.0511699295400844</v>
       </c>
       <c r="L34" t="n">
-        <v>5.26301785138973</v>
+        <v>0.9981270091527032</v>
       </c>
       <c r="M34" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>near protocol</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1198396448</v>
+        <v>60983663777.01</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3159685052.956359</v>
+        <v>815748307.4967141</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.636594140636471</v>
+        <v>0.0133765053946175</v>
       </c>
       <c r="J35" t="n">
-        <v>93769595.60651293</v>
+        <v>8916528.833656752</v>
       </c>
       <c r="K35" t="n">
-        <v>3.902076287701069</v>
+        <v>-0.468759696276288</v>
       </c>
       <c r="L35" t="n">
-        <v>2.643019971288001</v>
+        <v>0.0134568020841853</v>
       </c>
       <c r="M35" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>floki-inu</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>floki</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>420689899653543.6</v>
+        <v>9626637864609.92</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://bscscan.com/token/0xfb5b838b6cfeedc2873ab27866079ac55363d37e</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2970917462.368182</v>
+        <v>566159850.6601783</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>FLOKI</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>420690000000000</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.0620128147e-06</v>
+        <v>5.88117947951e-05</v>
       </c>
       <c r="J36" t="n">
-        <v>293124002.7892668</v>
+        <v>38820718.34533829</v>
       </c>
       <c r="K36" t="n">
-        <v>-1.715198548949083</v>
+        <v>1.875961871518552</v>
       </c>
       <c r="L36" t="n">
-        <v>7.1289588759e-06</v>
+        <v>5.81744515543e-05</v>
       </c>
       <c r="M36" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>60000000</v>
+        <v>1572540589.319017</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2907341998.881588</v>
+        <v>604688115.988225</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>48.4556999813598</v>
+        <v>0.3845294169799987</v>
       </c>
       <c r="J37" t="n">
-        <v>1892286.163204338</v>
+        <v>7361446.898246755</v>
       </c>
       <c r="K37" t="n">
-        <v>0.395475216279533</v>
+        <v>1.82627680308506</v>
       </c>
       <c r="L37" t="n">
-        <v>48.41771907075761</v>
+        <v>0.3827218753583948</v>
       </c>
       <c r="M37" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cronos</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>26571560696</v>
+        <v>43759805521.58257</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2789594008.385526</v>
+        <v>682073294.9507409</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>30263013692</v>
+        <v>50000000000</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1049841987191013</v>
+        <v>0.0155867533418159</v>
       </c>
       <c r="J38" t="n">
-        <v>42407317.79074584</v>
+        <v>28214455.61478801</v>
       </c>
       <c r="K38" t="n">
-        <v>4.886439206579357</v>
+        <v>3.789579092831442</v>
       </c>
       <c r="L38" t="n">
-        <v>0.105286820211011</v>
+        <v>0.0154614354430189</v>
       </c>
       <c r="M38" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3364694382.836841</v>
+        <v>85826705.19218351</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2666121460.414757</v>
+        <v>1917352673.083153</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6219316795</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7923814638305716</v>
+        <v>22.33981449934271</v>
       </c>
       <c r="J39" t="n">
-        <v>59334727.5187506</v>
+        <v>5788947.73221566</v>
       </c>
       <c r="K39" t="n">
-        <v>-1.279932296295425</v>
+        <v>0.4061115203931678</v>
       </c>
       <c r="L39" t="n">
-        <v>0.8067489382076848</v>
+        <v>22.39558132094913</v>
       </c>
       <c r="M39" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>first digital usd</t>
+          <t>hedera</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2588088088.167816</v>
+        <v>42219399509.40282</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://app.dragonglass.me/hedera/home</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2583488274.148527</v>
+        <v>7217873319.067986</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>50000000000</v>
       </c>
       <c r="I40" t="n">
-        <v>0.998222698044816</v>
+        <v>0.1709610606247602</v>
       </c>
       <c r="J40" t="n">
-        <v>873485697.563151</v>
+        <v>72366710.88913877</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0513171732011543</v>
+        <v>0.7944873219921624</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9985858621714304</v>
+        <v>0.1715412438448525</v>
       </c>
       <c r="M40" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>internet computer</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>482076964.6058819</v>
+        <v>179760925.5581076</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>https://explorer.helium.com/</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2582013199.236028</v>
+        <v>584083082.9055908</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>223000000</v>
       </c>
       <c r="I41" t="n">
-        <v>5.356018621107382</v>
+        <v>3.249221604151044</v>
       </c>
       <c r="J41" t="n">
-        <v>29953887.88768876</v>
+        <v>4369255.52311417</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3059181030360783</v>
+        <v>4.37365935999357</v>
       </c>
       <c r="L41" t="n">
-        <v>5.357795954264966</v>
+        <v>3.221984526973551</v>
       </c>
       <c r="M41" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ondo</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3159107529</v>
+        <v>333928180</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2532221474.755383</v>
+        <v>4237394546.089977</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1000000000</v>
       </c>
       <c r="I42" t="n">
-        <v>0.801562292992586</v>
+        <v>12.6895386489693</v>
       </c>
       <c r="J42" t="n">
-        <v>74422963.54350141</v>
+        <v>16335899.88031006</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9019816769209038</v>
+        <v>-1.250862264739026</v>
       </c>
       <c r="L42" t="n">
-        <v>0.7992064206792425</v>
+        <v>12.66206611765254</v>
       </c>
       <c r="M42" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ethereum classic</t>
+          <t>immutable x</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>151323700.0354662</v>
+        <v>1768317543.39</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2521872817.797315</v>
+        <v>962507580.9806228</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>210700000</v>
+        <v>2000000000</v>
       </c>
       <c r="I43" t="n">
-        <v>16.66541868330114</v>
+        <v>0.5443069795798227</v>
       </c>
       <c r="J43" t="n">
-        <v>22548585.68046064</v>
+        <v>9130288.708893213</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4574952869183328</v>
+        <v>-0.1867011166812788</v>
       </c>
       <c r="L43" t="n">
-        <v>16.67558196263682</v>
+        <v>0.5496917541088888</v>
       </c>
       <c r="M43" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>injective</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>15094302.18303862</v>
+        <v>98970935.41</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2495770052.606678</v>
+        <v>875455769.9508352</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>100000000</v>
       </c>
       <c r="I44" t="n">
-        <v>165.3451761030173</v>
+        <v>8.845584477141148</v>
       </c>
       <c r="J44" t="n">
-        <v>121736746.8274384</v>
+        <v>46204096.00690909</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.772590516685525</v>
+        <v>1.366486565803456</v>
       </c>
       <c r="L44" t="n">
-        <v>166.5432984205595</v>
+        <v>8.793450770371054</v>
       </c>
       <c r="M44" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pol (prev. matic)</t>
+          <t>internet computer</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10392099602.65343</v>
+        <v>482076964.6058819</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2128549485.638742</v>
+        <v>2584064946.91233</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2048238149194853</v>
+        <v>5.360274679427819</v>
       </c>
       <c r="J45" t="n">
-        <v>29753865.76840628</v>
+        <v>29953830.68369002</v>
       </c>
       <c r="K45" t="n">
-        <v>2.013862942068156</v>
+        <v>0.5558203395464523</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2032011224463736</v>
+        <v>5.358238301388973</v>
       </c>
       <c r="M45" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>trump official</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>199999429.080876</v>
+        <v>3688810566</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2043021774.274465</v>
+        <v>639076930.0121099</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>999999993.45</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>10.21513803146061</v>
+        <v>0.1732474244957229</v>
       </c>
       <c r="J46" t="n">
-        <v>63099908.42528619</v>
+        <v>8381385.312455789</v>
       </c>
       <c r="K46" t="n">
-        <v>1.723198430782309</v>
+        <v>1.242777017823846</v>
       </c>
       <c r="L46" t="n">
-        <v>10.12293420066817</v>
+        <v>0.1733952818441017</v>
       </c>
       <c r="M46" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5285937500</v>
+        <v>310420802.2</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1971238836.024046</v>
+        <v>689328171.0181694</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3729213287187082</v>
+        <v>2.220624926334816</v>
       </c>
       <c r="J47" t="n">
-        <v>67764752.31541735</v>
+        <v>13438681.41140014</v>
       </c>
       <c r="K47" t="n">
-        <v>1.170862366366427</v>
+        <v>2.882332232153635</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3667955159450927</v>
+        <v>2.189567160745052</v>
       </c>
       <c r="M47" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>85985041177</v>
+        <v>2690911111.1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://explore.veforge.com/</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1957221777.680274</v>
+        <v>1311417512.585624</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>86712634466</v>
+        <v>3000000000</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0227623520427389</v>
+        <v>0.4873507367731436</v>
       </c>
       <c r="J48" t="n">
-        <v>18599139.11323537</v>
+        <v>31178267.68988235</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0607612811592081</v>
+        <v>5.572376447188307</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0229385402688767</v>
+        <v>0.4799571468436546</v>
       </c>
       <c r="M48" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8534124</v>
+        <v>5966455361.82</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1954152336.987284</v>
+        <v>618044828.8354813</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>228.9810104689461</v>
+        <v>0.1035866006457398</v>
       </c>
       <c r="J49" t="n">
-        <v>47035804.00616716</v>
+        <v>3904182.03703015</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4535633662372402</v>
+        <v>1.640611721770256</v>
       </c>
       <c r="L49" t="n">
-        <v>229.1096893257286</v>
+        <v>0.1031842549244072</v>
       </c>
       <c r="M49" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>85826705.19218351</v>
+        <v>25943375617.3953</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1915660703.827857</v>
+        <v>1672487758.068358</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>28704026601</v>
       </c>
       <c r="I50" t="n">
-        <v>22.32010071385476</v>
+        <v>0.0644668520678912</v>
       </c>
       <c r="J50" t="n">
-        <v>5779605.594392439</v>
+        <v>33291440.47532743</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2999245260771432</v>
+        <v>2.293845626657552</v>
       </c>
       <c r="L50" t="n">
-        <v>22.3944891978739</v>
+        <v>0.0647827366234392</v>
       </c>
       <c r="M50" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>kucoin token</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>580696175.3830049</v>
+        <v>122543917.8513356</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1909245121.742149</v>
+        <v>1358888696.507099</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>200000000</v>
       </c>
       <c r="I51" t="n">
-        <v>3.2878555132258</v>
+        <v>11.08899340198701</v>
       </c>
       <c r="J51" t="n">
-        <v>29441358.05946009</v>
+        <v>428749.4086693298</v>
       </c>
       <c r="K51" t="n">
-        <v>3.941727812440086</v>
+        <v>0.4835362915814315</v>
       </c>
       <c r="L51" t="n">
-        <v>3.259171693757875</v>
+        <v>11.0754407970238</v>
       </c>
       <c r="M51" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>lido dao</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>517716590.0562826</v>
+        <v>897877243.8587133</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1823232881.217984</v>
+        <v>781963907.7790666</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>RENDER</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>644168762</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>3.52168139139558</v>
+        <v>0.870902913652764</v>
       </c>
       <c r="J52" t="n">
-        <v>41610389.10687581</v>
+        <v>26585468.32179833</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.4480737768579574</v>
+        <v>-0.0611823226060997</v>
       </c>
       <c r="L52" t="n">
-        <v>3.519539591482701</v>
+        <v>0.8683877792521563</v>
       </c>
       <c r="M52" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>646157090</v>
+        <v>75558468.3040892</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>http://explorer.litecoin.net/chain/Litecoin</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1792330192.613938</v>
+        <v>6527147267.357023</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>84000000</v>
       </c>
       <c r="I53" t="n">
-        <v>2.773830420422901</v>
+        <v>86.38538358252791</v>
       </c>
       <c r="J53" t="n">
-        <v>47172355.673451</v>
+        <v>151680343.9018265</v>
       </c>
       <c r="K53" t="n">
-        <v>1.554224868244829</v>
+        <v>1.145384154730262</v>
       </c>
       <c r="L53" t="n">
-        <v>2.750212111394053</v>
+        <v>85.89504657544688</v>
       </c>
       <c r="M53" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>390934204</v>
+        <v>848074.4183746701</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1684291847.436859</v>
+        <v>1083740388.234232</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="I54" t="n">
-        <v>4.308376781062778</v>
+        <v>1277.883596950389</v>
       </c>
       <c r="J54" t="n">
-        <v>42849736.10995493</v>
+        <v>24821833.816532</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2911445160773765</v>
+        <v>-2.356331360962542</v>
       </c>
       <c r="L54" t="n">
-        <v>4.284613880420686</v>
+        <v>1293.042130194744</v>
       </c>
       <c r="M54" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>25943375617.3953</v>
+        <v>3364694382.836841</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1668570286.4069</v>
+        <v>2667981155.819436</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>28704026601</v>
+        <v>6219316795</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0643158512220787</v>
+        <v>0.7929341723957728</v>
       </c>
       <c r="J55" t="n">
-        <v>33219875.41786733</v>
+        <v>59451730.61348396</v>
       </c>
       <c r="K55" t="n">
-        <v>2.354674477301366</v>
+        <v>-1.316521251585435</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0647221696596319</v>
+        <v>0.8062418143289097</v>
       </c>
       <c r="M55" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>mantra</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8530799349.038621</v>
+        <v>974778351.8199997</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://algoexplorer.io/</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1550235234.23301</v>
+        <v>6111778234.669128</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>10000000000</v>
+        <v>888888888</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1817221541387811</v>
+        <v>6.269915846261751</v>
       </c>
       <c r="J56" t="n">
-        <v>26187451.40529963</v>
+        <v>33448889.49836635</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.1823212966458643</v>
+        <v>0.5536950603107917</v>
       </c>
       <c r="L56" t="n">
-        <v>0.1833944132702904</v>
+        <v>6.220807532174547</v>
       </c>
       <c r="M56" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4617913336</v>
+        <v>18446744.07370955</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1544694415.87229</v>
+        <v>4005469081.424708</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3345005207937254</v>
+        <v>217.1369139952093</v>
       </c>
       <c r="J57" t="n">
-        <v>52483961.4420921</v>
+        <v>29658756.07239053</v>
       </c>
       <c r="K57" t="n">
-        <v>1.235798019436529</v>
+        <v>1.703168668047567</v>
       </c>
       <c r="L57" t="n">
-        <v>0.3328186793963527</v>
+        <v>216.3557465248735</v>
       </c>
       <c r="M57" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>83733353.16057506</v>
+        <v>2450000000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1469087030.127876</v>
+        <v>1065454198.640723</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>DEXE</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I58" t="n">
-        <v>17.54482502701898</v>
+        <v>0.4348792647513155</v>
       </c>
       <c r="J58" t="n">
-        <v>6039360.510336269</v>
+        <v>42363835.14692796</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.6719232006818787</v>
+        <v>-2.545774257026745</v>
       </c>
       <c r="L58" t="n">
-        <v>17.60726481760854</v>
+        <v>0.4467783804775426</v>
       </c>
       <c r="M58" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sonic (prev. ftm)</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2880000000</v>
+        <v>5365382702.664872</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1441217320.271582</v>
+        <v>5364602397.969604</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>3175000000</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.500422680649855</v>
+        <v>0.999854566814986</v>
       </c>
       <c r="J59" t="n">
-        <v>69507454.6160513</v>
+        <v>56039650.71994124</v>
       </c>
       <c r="K59" t="n">
-        <v>2.976567591522562</v>
+        <v>0.0811486901188504</v>
       </c>
       <c r="L59" t="n">
-        <v>0.4910468776486858</v>
+        <v>0.9994604056215556</v>
       </c>
       <c r="M59" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>story</t>
+          <t>near protocol</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>258757414</v>
+        <v>1198396448</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1365723645.144123</v>
+        <v>3170749559.195848</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>5.278007783553297</v>
+        <v>2.645826900177735</v>
       </c>
       <c r="J60" t="n">
-        <v>35754150.90485182</v>
+        <v>94372482.69713272</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.8321805750442154</v>
+        <v>4.294388316255501</v>
       </c>
       <c r="L60" t="n">
-        <v>5.320299220044007</v>
+        <v>2.64461989565272</v>
       </c>
       <c r="M60" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>kucoin token</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>122543917.8513356</v>
+        <v>646145839.5746847</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1358814431.505489</v>
+        <v>692716043.1744293</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>200000000</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>11.08838737434474</v>
+        <v>1.072073827218943</v>
       </c>
       <c r="J61" t="n">
-        <v>428344.171192376</v>
+        <v>3009027.226762121</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5760677231937108</v>
+        <v>-0.3644110207939468</v>
       </c>
       <c r="L61" t="n">
-        <v>11.07515492837054</v>
+        <v>1.075297789324605</v>
       </c>
       <c r="M61" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>trump official</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2690911111.1</v>
+        <v>199999429.080876</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1308274238.493673</v>
+        <v>2043751583.772997</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>3000000000</v>
+        <v>999999993.45</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4861826290348447</v>
+        <v>10.21878708936985</v>
       </c>
       <c r="J62" t="n">
-        <v>31195894.58990818</v>
+        <v>63012161.63716096</v>
       </c>
       <c r="K62" t="n">
-        <v>5.587023429911055</v>
+        <v>1.807508299837799</v>
       </c>
       <c r="L62" t="n">
-        <v>0.4788991699600357</v>
+        <v>10.13183373462756</v>
       </c>
       <c r="M62" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>optimism-ethereum</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1620705846</v>
+        <v>60000000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1224294268.27457</v>
+        <v>2905169116.516918</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7554080657487611</v>
+        <v>48.41948527528197</v>
       </c>
       <c r="J63" t="n">
-        <v>50579379.2002234</v>
+        <v>1891567.533318829</v>
       </c>
       <c r="K63" t="n">
-        <v>-1.581599223335539</v>
+        <v>0.3710225429166277</v>
       </c>
       <c r="L63" t="n">
-        <v>0.7613533311287086</v>
+        <v>48.41781257138272</v>
       </c>
       <c r="M63" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>artificial superintelligence alliance</t>
+          <t>ondo</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2520000000</v>
+        <v>3159107529</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1199234070.57269</v>
+        <v>2536838011.83516</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2630547141</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.4758865359415437</v>
+        <v>0.8030236351714761</v>
       </c>
       <c r="J64" t="n">
-        <v>51776683.97883721</v>
+        <v>74670341.46201007</v>
       </c>
       <c r="K64" t="n">
-        <v>1.665711754557708</v>
+        <v>1.134568294114904</v>
       </c>
       <c r="L64" t="n">
-        <v>0.472846107243546</v>
+        <v>0.7993976751103486</v>
       </c>
       <c r="M64" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>848074.4183746701</v>
+        <v>1620705846</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1080840054.789814</v>
+        <v>1226760960.995248</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1274.463692539197</v>
+        <v>0.7569300524354673</v>
       </c>
       <c r="J65" t="n">
-        <v>24651266.2097999</v>
+        <v>50726490.34085599</v>
       </c>
       <c r="K65" t="n">
-        <v>-2.643269238976505</v>
+        <v>-1.307577964728304</v>
       </c>
       <c r="L65" t="n">
-        <v>1296.665495436247</v>
+        <v>0.760640178133232</v>
       </c>
       <c r="M65" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2450000000</v>
+        <v>301827011.9503255</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1061427306.741296</v>
+        <v>604192008.2020433</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>MOVE</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>10000000000</v>
+        <v>450000000</v>
       </c>
       <c r="I66" t="n">
-        <v>0.4332356354046108</v>
+        <v>2.001782425959545</v>
       </c>
       <c r="J66" t="n">
-        <v>42214189.73767837</v>
+        <v>38962922.10628068</v>
       </c>
       <c r="K66" t="n">
-        <v>-2.542545904306133</v>
+        <v>0.8378996939706946</v>
       </c>
       <c r="L66" t="n">
-        <v>0.4472967803066455</v>
+        <v>2.008783935045072</v>
       </c>
       <c r="M66" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>xinfin-network</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>xdc network</t>
+          <t>pax gold</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>15692654414.55</v>
+        <v>210371.22</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1048917900.241988</v>
+        <v>658079319.4493791</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>XDC</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0668413305061664</v>
+        <v>3128.181314199628</v>
       </c>
       <c r="J67" t="n">
-        <v>8174744.261468378</v>
+        <v>43580887.03169716</v>
       </c>
       <c r="K67" t="n">
-        <v>-1.869488746259717</v>
+        <v>0.6020036812845043</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0676219798563</v>
+        <v>3123.048867817353</v>
       </c>
       <c r="M67" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>immutable x</t>
+          <t>paypal usd</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1768317543.39</v>
+        <v>802871349.4263151</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>962710485.1178218</v>
+        <v>801762690.4410471</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>2000000000</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.544421723754565</v>
+        <v>0.9986191324599388</v>
       </c>
       <c r="J68" t="n">
-        <v>9113997.397332963</v>
+        <v>7767613.375340574</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.2628126707429154</v>
+        <v>0.0457811745326145</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5499373486670961</v>
+        <v>0.9984507325612568</v>
       </c>
       <c r="M68" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>worldcoin</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1214684893.749747</v>
+        <v>420689899653543.6</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>956603267.4592154</v>
+        <v>2973819546.164363</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>420690000000000</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7875320359885019</v>
+        <v>7.0689112066e-06</v>
       </c>
       <c r="J69" t="n">
-        <v>58106757.93073317</v>
+        <v>293202495.8599504</v>
       </c>
       <c r="K69" t="n">
-        <v>1.559260044415786</v>
+        <v>-1.685894081856246</v>
       </c>
       <c r="L69" t="n">
-        <v>0.7850781184311288</v>
+        <v>7.1220496552e-06</v>
       </c>
       <c r="M69" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1519244275.49944</v>
+        <v>6773820584.991654</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://explorer.stacks.co/</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>951106085.1923677</v>
+        <v>5237699589.282393</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1818000000</v>
+        <v>100000000000</v>
       </c>
       <c r="I70" t="n">
-        <v>0.626038946159398</v>
+        <v>0.7732267962466041</v>
       </c>
       <c r="J70" t="n">
-        <v>12830259.71335755</v>
+        <v>85324025.19705926</v>
       </c>
       <c r="K70" t="n">
-        <v>0.3520950395419311</v>
+        <v>-4.474457624603769</v>
       </c>
       <c r="L70" t="n">
-        <v>0.6187748747585722</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1555739230.6061</v>
+        <v>1522267060</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>923870272.6281277</v>
+        <v>6242045410.163404</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>2100000000</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5938464843289947</v>
+        <v>4.100492991133504</v>
       </c>
       <c r="J71" t="n">
-        <v>137794182.2510148</v>
+        <v>65207913.03550316</v>
       </c>
       <c r="K71" t="n">
-        <v>7.835674286351067</v>
+        <v>1.05667824108237</v>
       </c>
       <c r="L71" t="n">
-        <v>0.5905254766448291</v>
+        <v>4.085538335822255</v>
       </c>
       <c r="M71" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>usual usd</t>
+          <t>pol (prev. matic)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>898876668.3664446</v>
+        <v>10392099602.65343</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>896443286.330442</v>
+        <v>2132526451.965802</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>USD0</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9972928632796478</v>
+        <v>0.2052065062406928</v>
       </c>
       <c r="J72" t="n">
-        <v>1348705.92</v>
+        <v>29699721.94085203</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.0412787913723392</v>
+        <v>2.314403872115422</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.2033455771216895</v>
       </c>
       <c r="M72" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>77894175221082.55</v>
+        <v>12072738</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>889663158.2465116</v>
+        <v>843164617.3574919</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>BONK</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>14881364</v>
       </c>
       <c r="I73" t="n">
-        <v>1.14214337044e-05</v>
+        <v>69.84038064583956</v>
       </c>
       <c r="J73" t="n">
-        <v>39697530.09503684</v>
+        <v>8580615.045439437</v>
       </c>
       <c r="K73" t="n">
-        <v>1.601714512706517</v>
+        <v>1.836111860678916</v>
       </c>
       <c r="L73" t="n">
-        <v>1.13530216234e-05</v>
+        <v>69.66498635893893</v>
       </c>
       <c r="M73" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>render</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>381867255.144574</v>
+        <v>517716590.0562826</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4197,489 +4197,489 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>880519521.9775759</v>
+        <v>1829675548.528838</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>FORM</t>
+          <t>RENDER</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>580000000</v>
+        <v>644168762</v>
       </c>
       <c r="I74" t="n">
-        <v>2.305826200374822</v>
+        <v>3.534125781694437</v>
       </c>
       <c r="J74" t="n">
-        <v>3929166.698610174</v>
+        <v>41878757.44648113</v>
       </c>
       <c r="K74" t="n">
-        <v>4.793862132691384</v>
+        <v>-0.0047057772223307</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>3.51809970959377</v>
       </c>
       <c r="M74" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>the graph</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9775189789.318211</v>
+        <v>4882361111</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>880303895.7792685</v>
+        <v>876452745.498787</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0900549160427776</v>
+        <v>0.1795141173650863</v>
       </c>
       <c r="J75" t="n">
-        <v>6880349.070587106</v>
+        <v>31264594.42849451</v>
       </c>
       <c r="K75" t="n">
-        <v>1.794569339740467</v>
+        <v>0.7806243798684325</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0894050417031447</v>
+        <v>0.1790127169461673</v>
       </c>
       <c r="M75" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>shiba inu</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4882361111</v>
+        <v>589250806511191.1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>874659863.1400057</v>
+        <v>7412444842.72647</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>SEI</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>589552695333683</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1791469011108969</v>
+        <v>1.25794394523e-05</v>
       </c>
       <c r="J76" t="n">
-        <v>31105394.41429142</v>
+        <v>66840713.95056733</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6821100066324752</v>
+        <v>-0.2454300059626578</v>
       </c>
       <c r="L76" t="n">
-        <v>0.1789644019974375</v>
+        <v>1.26198953745e-05</v>
       </c>
       <c r="M76" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>injective</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>98970935.41</v>
+        <v>512293263.8307307</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>https://explorer.solana.com/</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>873766230.7869549</v>
+        <v>64667504451.95541</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>100000000</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>8.828513413228483</v>
+        <v>126.2314166858195</v>
       </c>
       <c r="J77" t="n">
-        <v>46127859.38403631</v>
+        <v>953154026.3852154</v>
       </c>
       <c r="K77" t="n">
-        <v>1.053929665242633</v>
+        <v>1.108056804897444</v>
       </c>
       <c r="L77" t="n">
-        <v>8.786419061582674</v>
+        <v>124.9012036470155</v>
       </c>
       <c r="M77" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>12072738</v>
+        <v>1519244275.49944</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>842221118.0749571</v>
+        <v>953591446.119048</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>14881364</v>
+        <v>1818000000</v>
       </c>
       <c r="I78" t="n">
-        <v>69.76222941928809</v>
+        <v>0.6276748653902691</v>
       </c>
       <c r="J78" t="n">
-        <v>8570183.695520639</v>
+        <v>12850981.4572103</v>
       </c>
       <c r="K78" t="n">
-        <v>1.561255984225707</v>
+        <v>0.8690354315065516</v>
       </c>
       <c r="L78" t="n">
-        <v>69.59597779400085</v>
+        <v>0.6187259611593025</v>
       </c>
       <c r="M78" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>theta network</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1000000000</v>
+        <v>30787176939.11807</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://dashboard.stellar.org/</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>823678060.5475427</v>
+        <v>8296295563.330326</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1000000000</v>
+        <v>50001806812</v>
       </c>
       <c r="I79" t="n">
-        <v>0.8236780605475428</v>
+        <v>0.2694724358695287</v>
       </c>
       <c r="J79" t="n">
-        <v>9118342.556256503</v>
+        <v>48242342.11522084</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.53599468679898</v>
+        <v>1.500689011004717</v>
       </c>
       <c r="L79" t="n">
-        <v>0.8302442045829244</v>
+        <v>0.2684348841122614</v>
       </c>
       <c r="M79" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>steth</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>lido staked eth</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>60983663777.01</v>
+        <v>9369845.35495159</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>https://etherscan.io/token/0xae7ab96520de3a18e5e111b5eaab095312d7fe84</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>816859664.8609456</v>
+        <v>16968716904.44786</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>STETH</t>
         </is>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.013394729248276</v>
+        <v>1810.992205488276</v>
       </c>
       <c r="J80" t="n">
-        <v>8899582.836134756</v>
+        <v>4986223.602195241</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.5780801669154456</v>
+        <v>-0.3024847172370749</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0134336878945874</v>
+        <v>1821.663329530742</v>
       </c>
       <c r="M80" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>paypal usd</t>
+          <t>story</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>802871349.4263151</v>
+        <v>258757414</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>801755064.9374723</v>
+        <v>1367680428.03329</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PYUSD</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.998609634669813</v>
+        <v>5.285570012820155</v>
       </c>
       <c r="J81" t="n">
-        <v>7766737.758043046</v>
+        <v>35726625.20577305</v>
       </c>
       <c r="K81" t="n">
-        <v>0.045113946839677</v>
+        <v>-0.8162029802605713</v>
       </c>
       <c r="L81" t="n">
-        <v>0.9984528844538174</v>
+        <v>5.318484335299077</v>
       </c>
       <c r="M81" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>107480000</v>
+        <v>3169845047.483888</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>788704900.7558733</v>
+        <v>7517552122.125976</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>BERA</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I82" t="n">
-        <v>7.338155012615122</v>
+        <v>2.371583471593713</v>
       </c>
       <c r="J82" t="n">
-        <v>87499169.87632182</v>
+        <v>524339592.9475638</v>
       </c>
       <c r="K82" t="n">
-        <v>-5.226956398773011</v>
+        <v>4.186844680099367</v>
       </c>
       <c r="L82" t="n">
-        <v>7.469217319979984</v>
+        <v>2.365315203446364</v>
       </c>
       <c r="M82" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>tether</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>lido dao</t>
+          <t>tether</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>897877243.8587133</v>
+        <v>144182349120.787</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://www.omniexplorer.info/asset/31</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>781379676.2433544</v>
+        <v>144586473851.1635</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>USDT</t>
         </is>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.8702522327944304</v>
+        <v>1.002802872423988</v>
       </c>
       <c r="J83" t="n">
-        <v>26765928.85344432</v>
+        <v>16889414674.71895</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.0686874201098381</v>
+        <v>0.0384470409738277</v>
       </c>
       <c r="L83" t="n">
-        <v>0.868689776844441</v>
+        <v>1.000282287605321</v>
       </c>
       <c r="M83" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="84">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>766850704.4662664</v>
+        <v>767207208.6997688</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4718,886 +4718,886 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>3110.653341931278</v>
+        <v>3112.099465771157</v>
       </c>
       <c r="J84" t="n">
-        <v>5671308.612634252</v>
+        <v>5665416.53406998</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.1033796854324168</v>
+        <v>-0.09858963847454021</v>
       </c>
       <c r="L84" t="n">
-        <v>3102.111305211799</v>
+        <v>3101.370795021528</v>
       </c>
       <c r="M84" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>646145839.5746847</v>
+        <v>1036889881.760222</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>692650683.3817264</v>
+        <v>679515144.1914803</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1.071972673905403</v>
+        <v>0.6553397387174199</v>
       </c>
       <c r="J85" t="n">
-        <v>3008086.025443106</v>
+        <v>4594132.284991864</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.4096824416545598</v>
+        <v>0.2383523717431396</v>
       </c>
       <c r="L85" t="n">
-        <v>1.075464828349523</v>
+        <v>0.6547139980460938</v>
       </c>
       <c r="M85" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>the graph</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>310420802.2</v>
+        <v>9775189789.318211</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>687649153.6546053</v>
+        <v>881726841.4225415</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>2.215216083397536</v>
+        <v>0.0902004831032584</v>
       </c>
       <c r="J86" t="n">
-        <v>13430493.41206118</v>
+        <v>6852152.396004832</v>
       </c>
       <c r="K86" t="n">
-        <v>2.908340359548704</v>
+        <v>2.281950219041909</v>
       </c>
       <c r="L86" t="n">
-        <v>2.184702830803125</v>
+        <v>0.08945963390037601</v>
       </c>
       <c r="M86" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>the sandbox</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>43759805521.58257</v>
+        <v>2481357126.223322</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>680045192.3683219</v>
+        <v>674628377.5776187</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>50000000000</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0155404070987683</v>
+        <v>0.2718787918305082</v>
       </c>
       <c r="J87" t="n">
-        <v>28174138.65356803</v>
+        <v>11697732.26775693</v>
       </c>
       <c r="K87" t="n">
-        <v>3.566207347653878</v>
+        <v>1.729624697153837</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0154328503663102</v>
+        <v>0.2711383001115169</v>
       </c>
       <c r="M87" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>theta network</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1036889881.760222</v>
+        <v>1000000000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>678733945.6015047</v>
+        <v>825090255.409063</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1000000000</v>
       </c>
       <c r="I88" t="n">
-        <v>0.6545863331690414</v>
+        <v>0.8250902554090631</v>
       </c>
       <c r="J88" t="n">
-        <v>4625988.299444144</v>
+        <v>9150545.132609876</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.0339107676627609</v>
+        <v>-0.322348331695338</v>
       </c>
       <c r="L88" t="n">
-        <v>0.6546292767800348</v>
+        <v>0.8296908215157212</v>
       </c>
       <c r="M88" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>the sandbox</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2481357126.223322</v>
+        <v>2484542062.423414</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>673817278.850806</v>
+        <v>9643303953.745028</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2715519147686613</v>
+        <v>3.881320465284851</v>
       </c>
       <c r="J89" t="n">
-        <v>11669290.18794928</v>
+        <v>120415195.62304</v>
       </c>
       <c r="K89" t="n">
-        <v>1.62038346049698</v>
+        <v>2.948893802871485</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2709836052314141</v>
+        <v>3.781216470810416</v>
       </c>
       <c r="M89" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bittorrent [new]</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>986061142857000</v>
+        <v>94994333997.78676</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://tronscan.org/#/</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>665111326.8744733</v>
+        <v>22064228294.13318</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>6.74513271e-07</v>
+        <v>0.2322688876859461</v>
       </c>
       <c r="J90" t="n">
-        <v>868495.9620615237</v>
+        <v>208148562.0900334</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0731058347261706</v>
+        <v>-0.9697758923119344</v>
       </c>
       <c r="L90" t="n">
-        <v>6.755091103e-07</v>
+        <v>0.2315697321919429</v>
       </c>
       <c r="M90" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>pax gold</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>210371.22</v>
+        <v>628494054.71</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>657904697.3275756</v>
+        <v>3752579971.891531</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>3127.351247606852</v>
+        <v>5.970748559623286</v>
       </c>
       <c r="J91" t="n">
-        <v>43585587.88943596</v>
+        <v>39387509.13147256</v>
       </c>
       <c r="K91" t="n">
-        <v>0.5126829493593221</v>
+        <v>0.6755184647686651</v>
       </c>
       <c r="L91" t="n">
-        <v>3122.184727016048</v>
+        <v>5.973230614913674</v>
       </c>
       <c r="M91" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>unus sed leo</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3688810566</v>
+        <v>923836227.9</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>638583275.6180601</v>
+        <v>8872512198.864807</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1731135996800493</v>
+        <v>9.603988164691463</v>
       </c>
       <c r="J92" t="n">
-        <v>8402324.301709605</v>
+        <v>4810508.733904231</v>
       </c>
       <c r="K92" t="n">
-        <v>1.050862384928744</v>
+        <v>0.2886441149277279</v>
       </c>
       <c r="L92" t="n">
-        <v>0.173358827437519</v>
+        <v>9.540369580402579</v>
       </c>
       <c r="M92" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>usd-coin</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>bitcoin sv</t>
+          <t>usdc</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>19844809.375</v>
+        <v>60236504303.70195</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>634732366.0605547</v>
+        <v>60234813484.98527</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>31.98480540005463</v>
+        <v>0.999971930331346</v>
       </c>
       <c r="J93" t="n">
-        <v>6289133.104518423</v>
+        <v>2637758779.940614</v>
       </c>
       <c r="K93" t="n">
-        <v>2.313052048547329</v>
+        <v>-0.0169607808786054</v>
       </c>
       <c r="L93" t="n">
-        <v>31.91202045500918</v>
+        <v>1.001492774493295</v>
       </c>
       <c r="M93" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>curve dao token</t>
+          <t>usual usd</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1307677861</v>
+        <v>898876668.3664446</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>626937381.9589421</v>
+        <v>896443286.330442</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>USD0</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>3030303030.299</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.4794280003176883</v>
+        <v>0.9972928632796478</v>
       </c>
       <c r="J94" t="n">
-        <v>36098765.45503253</v>
+        <v>1348705.92</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.9122635749065848</v>
+        <v>-0.0437967857502329</v>
       </c>
       <c r="L94" t="n">
-        <v>0.4823501414497256</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5966455361.82</v>
+        <v>85985041177</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>615602294.8735102</v>
+        <v>1960605547.507264</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>86712634466</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1031772229140968</v>
+        <v>0.0228017050485719</v>
       </c>
       <c r="J95" t="n">
-        <v>3905758.657559633</v>
+        <v>18629481.14336056</v>
       </c>
       <c r="K95" t="n">
-        <v>1.240469034310122</v>
+        <v>0.5150139617779848</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1031359067550185</v>
+        <v>0.0229428379613368</v>
       </c>
       <c r="M95" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>wrapped eth</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1572540589.319017</v>
+        <v>3375317.5926469</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://etherscan.io/token/0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>603982786.9653914</v>
+        <v>6140514860.934415</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.3840808886382666</v>
+        <v>1819.240617330788</v>
       </c>
       <c r="J96" t="n">
-        <v>7322659.890919102</v>
+        <v>8084525.016666666</v>
       </c>
       <c r="K96" t="n">
-        <v>1.596262052686077</v>
+        <v>-0.2476023654848287</v>
       </c>
       <c r="L96" t="n">
-        <v>0.3824434500533655</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>worldcoin</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>301827011.9503255</v>
+        <v>1214684893.749747</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>603256598.4201746</v>
+        <v>958571455.1192458</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>WLD</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>450000000</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1.998683267352685</v>
+        <v>0.7891523637542934</v>
       </c>
       <c r="J97" t="n">
-        <v>38814305.72796211</v>
+        <v>58323126.38765307</v>
       </c>
       <c r="K97" t="n">
-        <v>0.914519929770308</v>
+        <v>1.620227352026545</v>
       </c>
       <c r="L97" t="n">
-        <v>2.007866855611253</v>
+        <v>0.785367336307166</v>
       </c>
       <c r="M97" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>wrapped-bitcoin</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>wrapped bitcoin</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>179760925.5581076</v>
+        <v>129077.40552189</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://etherscan.io/token/0x2260fac5e5542a773aa44fbcfedf7c193bc2c599</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>580993082.2828976</v>
+        <v>10659986060.51545</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>WBTC</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>223000000</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>3.232032103078441</v>
+        <v>82585.99572415206</v>
       </c>
       <c r="J98" t="n">
-        <v>4344333.304603077</v>
+        <v>14141420.48076533</v>
       </c>
       <c r="K98" t="n">
-        <v>4.259567448253148</v>
+        <v>0.7056720712428559</v>
       </c>
       <c r="L98" t="n">
-        <v>3.220298460674731</v>
+        <v>82965.34921434565</v>
       </c>
       <c r="M98" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>xinfin-network</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>xdc network</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>15886821</v>
+        <v>15692654414.55</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>577975481.8337584</v>
+        <v>1049250389.066715</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>XDC</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>36.38081412472378</v>
+        <v>0.0668625180513671</v>
       </c>
       <c r="J99" t="n">
-        <v>7250480.931587698</v>
+        <v>8205801.102839162</v>
       </c>
       <c r="K99" t="n">
-        <v>1.615943472183369</v>
+        <v>-1.868023916865724</v>
       </c>
       <c r="L99" t="n">
-        <v>36.09101803128296</v>
+        <v>0.06753333978693719</v>
       </c>
       <c r="M99" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>xrp</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ethereum name service</t>
+          <t>xrp</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>35599404.04</v>
+        <v>58205697378</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>https://xrpcharts.ripple.com/#/graph/</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>568828997.7816418</v>
+        <v>125766898323.9508</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>100000000</v>
+        <v>100000000000</v>
       </c>
       <c r="I100" t="n">
-        <v>15.97861012343065</v>
+        <v>2.160731749457346</v>
       </c>
       <c r="J100" t="n">
-        <v>22229840.72205057</v>
+        <v>1135251352.909298</v>
       </c>
       <c r="K100" t="n">
-        <v>1.484973065553707</v>
+        <v>1.687407568823975</v>
       </c>
       <c r="L100" t="n">
-        <v>15.90973309241156</v>
+        <v>2.158241335171446</v>
       </c>
       <c r="M100" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>floki-inu</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>floki</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>9626637864609.92</v>
+        <v>15886821</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0xfb5b838b6cfeedc2873ab27866079ac55363d37e</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>564432126.546084</v>
+        <v>578906400.6221349</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>FLOKI</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="I101" t="n">
-        <v>5.86323215316e-05</v>
+        <v>36.43941104530195</v>
       </c>
       <c r="J101" t="n">
-        <v>38723854.67582025</v>
+        <v>7281308.652083413</v>
       </c>
       <c r="K101" t="n">
-        <v>1.361121960112513</v>
+        <v>2.013113687103653</v>
       </c>
       <c r="L101" t="n">
-        <v>5.81594769755e-05</v>
+        <v>36.10728176160907</v>
       </c>
       <c r="M101" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/enriched_data/enriched_data.xlsx
+++ b/src/static/enriched_data/enriched_data.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15094302.18303862</v>
+        <v>15097419.54581311</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2502723147.548345</v>
+        <v>2276313816.177361</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>165.8058197854711</v>
+        <v>150.775025445235</v>
       </c>
       <c r="J2" t="n">
-        <v>121158203.7110956</v>
+        <v>87608470.72647168</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.512174871939255</v>
+        <v>0.6097255077297172</v>
       </c>
       <c r="L2" t="n">
-        <v>166.4288144080013</v>
+        <v>152.2652398563811</v>
       </c>
       <c r="M2" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="3">
@@ -564,11 +564,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8530799349.038621</v>
+        <v>8558582711.311396</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1552633403.390302</v>
+        <v>1554675043.246706</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -587,19 +587,19 @@
         <v>10000000000</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1820032730655277</v>
+        <v>0.1816509924233109</v>
       </c>
       <c r="J3" t="n">
-        <v>26261152.05350428</v>
+        <v>48727674.20762343</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0012023716573866</v>
+        <v>-3.630844208507068</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1833981648223011</v>
+        <v>0.187531566787662</v>
       </c>
       <c r="M3" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="4">
@@ -615,11 +615,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>604052367.6645604</v>
+        <v>604650885.7836708</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3247459454.593124</v>
+        <v>2906826188.560305</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.376122383476011</v>
+        <v>4.807445514270356</v>
       </c>
       <c r="J4" t="n">
-        <v>39045032.8963454</v>
+        <v>52222148.06817327</v>
       </c>
       <c r="K4" t="n">
-        <v>3.719168620078743</v>
+        <v>-0.9270776434674884</v>
       </c>
       <c r="L4" t="n">
-        <v>5.271026654163057</v>
+        <v>4.865487260937083</v>
       </c>
       <c r="M4" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="5">
@@ -666,7 +666,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1547508740.962107</v>
+        <v>1420139889.837924</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -689,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3351099573259959</v>
+        <v>0.3075284845141849</v>
       </c>
       <c r="J5" t="n">
-        <v>52649310.31985822</v>
+        <v>37589887.65507532</v>
       </c>
       <c r="K5" t="n">
-        <v>1.408937611670383</v>
+        <v>-1.612907190617217</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3329561775554554</v>
+        <v>0.3123092857678486</v>
       </c>
       <c r="M5" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="6">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>414849355.3863751</v>
+        <v>415273896.7471752</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7992201792.645712</v>
+        <v>7421393045.909735</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -740,19 +740,19 @@
         <v>715748719</v>
       </c>
       <c r="I6" t="n">
-        <v>19.2653108625469</v>
+        <v>17.87108003667273</v>
       </c>
       <c r="J6" t="n">
-        <v>118897745.6813084</v>
+        <v>96981960.0624973</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.904454095650301</v>
+        <v>-1.003745445717064</v>
       </c>
       <c r="L6" t="n">
-        <v>19.49728095092712</v>
+        <v>18.09893858546541</v>
       </c>
       <c r="M6" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="7">
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>792133992.3010215</v>
+        <v>601823911.1512188</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7.370059474330307</v>
+        <v>5.599403713725519</v>
       </c>
       <c r="J7" t="n">
-        <v>88079938.16240172</v>
+        <v>83624277.11109178</v>
       </c>
       <c r="K7" t="n">
-        <v>-4.703430881568</v>
+        <v>-2.800694505954411</v>
       </c>
       <c r="L7" t="n">
-        <v>7.456875737744831</v>
+        <v>5.77278156504751</v>
       </c>
       <c r="M7" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="8">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>87094124885.83772</v>
+        <v>85330156862.03966</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -842,19 +842,19 @@
         <v>144006830</v>
       </c>
       <c r="I8" t="n">
-        <v>604.7916261043849</v>
+        <v>592.5424291475596</v>
       </c>
       <c r="J8" t="n">
-        <v>229928302.6426412</v>
+        <v>229301763.6614661</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1636104082446619</v>
+        <v>-0.4396357085324256</v>
       </c>
       <c r="L8" t="n">
-        <v>605.3684300075689</v>
+        <v>595.924005683987</v>
       </c>
       <c r="M8" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="9">
@@ -870,7 +870,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>882787928.7271338</v>
+        <v>803880666.8217182</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -893,19 +893,19 @@
         <v>580000000</v>
       </c>
       <c r="I9" t="n">
-        <v>2.311766502191744</v>
+        <v>2.105131183655355</v>
       </c>
       <c r="J9" t="n">
-        <v>3940362.819187566</v>
+        <v>12402619.97453684</v>
       </c>
       <c r="K9" t="n">
-        <v>5.138914680705369</v>
+        <v>-1.786628052629325</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="10">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19844146</v>
+        <v>19847109</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1641207194690.05</v>
+        <v>1640947393817.682</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -944,1039 +944,1039 @@
         <v>21000000</v>
       </c>
       <c r="I10" t="n">
-        <v>82704.85384909231</v>
+        <v>82679.41662524665</v>
       </c>
       <c r="J10" t="n">
-        <v>5481135534.058089</v>
+        <v>8513772398.236225</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4735418379954891</v>
+        <v>-0.689459795415594</v>
       </c>
       <c r="L10" t="n">
-        <v>82865.43019757388</v>
+        <v>83662.23395975896</v>
       </c>
       <c r="M10" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>bitcoin-bep2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bitcoin cash</t>
+          <t>bitcoin bep2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19849190.625</v>
+        <v>65207.71856383</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://blockchair.com/bitcoin-cash/blocks</t>
+          <t>https://explorer.binance.org/asset/BTCB-1DE</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6032029266.771893</v>
+        <v>5392816778.691422</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>BTCB</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>303.8929586969944</v>
+        <v>82702.12326800768</v>
       </c>
       <c r="J11" t="n">
-        <v>40840706.49356946</v>
+        <v>2488513.626465227</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5132070457444577</v>
+        <v>-0.7354378380572122</v>
       </c>
       <c r="L11" t="n">
-        <v>304.7139250436769</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bitcoin sv</t>
+          <t>bitcoin cash</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19844809.375</v>
+        <v>19851893.75</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://blockchair.com/bitcoin-cash/blocks</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>635134845.9482838</v>
+        <v>5911180444.764046</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="I12" t="n">
-        <v>32.00508676835218</v>
+        <v>297.7640581399971</v>
       </c>
       <c r="J12" t="n">
-        <v>6289934.91067226</v>
+        <v>50326305.14627556</v>
       </c>
       <c r="K12" t="n">
-        <v>2.40475432569106</v>
+        <v>-0.5181835646455871</v>
       </c>
       <c r="L12" t="n">
-        <v>31.93017721011367</v>
+        <v>300.724577373885</v>
       </c>
       <c r="M12" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bitget-token-new</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bitget token</t>
+          <t>bitcoin sv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1200000000</v>
+        <v>19847437.5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5481899749.226211</v>
+        <v>599408070.5143515</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.568249791021842</v>
+        <v>30.20077884182034</v>
       </c>
       <c r="J13" t="n">
-        <v>67146784.30220707</v>
+        <v>9337576.127592664</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.7622214144252912</v>
+        <v>-1.623729793422515</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>30.74083627273941</v>
       </c>
       <c r="M13" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>bitget-token-new</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>bitget token</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8534124</v>
+        <v>1200000000</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1960187670.166676</v>
+        <v>5313756912.559417</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>229.6882105493987</v>
+        <v>4.428130760466181</v>
       </c>
       <c r="J14" t="n">
-        <v>46406660.81908858</v>
+        <v>34391266.27390309</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2282403527470067</v>
+        <v>-2.609229881698155</v>
       </c>
       <c r="L14" t="n">
-        <v>229.1538869533195</v>
+        <v>4.457988773152985</v>
       </c>
       <c r="M14" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bittorrent [new]</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>986061142857000</v>
+        <v>8561026</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://bittensor.com/scan</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>664200063.8926384</v>
+        <v>1837178611.95682</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="I15" t="n">
-        <v>6.735891265e-07</v>
+        <v>214.5979479511942</v>
       </c>
       <c r="J15" t="n">
-        <v>866759.9399415634</v>
+        <v>43102750.32511793</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0312148993952195</v>
+        <v>-0.8396937393148506</v>
       </c>
       <c r="L15" t="n">
-        <v>6.754592100999999e-07</v>
+        <v>218.1506880415141</v>
       </c>
       <c r="M15" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>bittorrent [new]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>77894175221082.55</v>
+        <v>986061142857000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>891548861.194496</v>
+        <v>621665728.3100299</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BONK</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.14456422276e-05</v>
+        <v>6.3045353e-07</v>
       </c>
       <c r="J16" t="n">
-        <v>39877244.68560927</v>
+        <v>1594695.544999879</v>
       </c>
       <c r="K16" t="n">
-        <v>1.86588879511246</v>
+        <v>-0.3783721186680034</v>
       </c>
       <c r="L16" t="n">
-        <v>1.1357717936e-05</v>
+        <v>6.335649573e-07</v>
       </c>
       <c r="M16" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35242104181.18973</v>
+        <v>77894175221082.55</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://cardanoexplorer.com/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>23691787244.09586</v>
+        <v>858000195.3501078</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>45000000000</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6722580218902258</v>
+        <v>1.10149467905e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>226038813.736763</v>
+        <v>46957592.40750256</v>
       </c>
       <c r="K17" t="n">
-        <v>0.548656923749116</v>
+        <v>-1.13243968995631</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6732855680187255</v>
+        <v>1.12403882285e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>580696175.3830049</v>
+        <v>35274323538.58242</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>https://cardanoexplorer.com/</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1911368024.400052</v>
+        <v>22865065662.87445</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>45000000000</v>
       </c>
       <c r="I18" t="n">
-        <v>3.291511302169998</v>
+        <v>0.6482070630742234</v>
       </c>
       <c r="J18" t="n">
-        <v>29436573.13505105</v>
+        <v>227927980.3011179</v>
       </c>
       <c r="K18" t="n">
-        <v>3.961739593383761</v>
+        <v>-1.564953876018889</v>
       </c>
       <c r="L18" t="n">
-        <v>3.264691757364677</v>
+        <v>0.6584493018692923</v>
       </c>
       <c r="M18" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>657099970.4527867</v>
+        <v>587939919.143268</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8967880690.436407</v>
+        <v>1564890099.09053</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>13.64766564250022</v>
+        <v>2.661649682455396</v>
       </c>
       <c r="J19" t="n">
-        <v>126540504.6246522</v>
+        <v>39761277.43551926</v>
       </c>
       <c r="K19" t="n">
-        <v>1.122352532379778</v>
+        <v>-3.198898902080411</v>
       </c>
       <c r="L19" t="n">
-        <v>13.61221517095656</v>
+        <v>2.73966106511818</v>
       </c>
       <c r="M19" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>390934204</v>
+        <v>657099970.4527867</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/</t>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1687107422.514118</v>
+        <v>8301534641.617059</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.315578952293768</v>
+        <v>12.63359460493772</v>
       </c>
       <c r="J20" t="n">
-        <v>42938439.41112184</v>
+        <v>151668202.0974177</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6140060868897445</v>
+        <v>-1.164296339530179</v>
       </c>
       <c r="L20" t="n">
-        <v>4.284810789934093</v>
+        <v>12.87582329534774</v>
       </c>
       <c r="M20" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cronos</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26571560696</v>
+        <v>390934204</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://www.mintscan.io/</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2797454361.216642</v>
+        <v>1909108997.370275</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>30263013692</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.105280016978369</v>
+        <v>4.883453475895589</v>
       </c>
       <c r="J21" t="n">
-        <v>42558888.15240604</v>
+        <v>86858515.999716</v>
       </c>
       <c r="K21" t="n">
-        <v>5.017526452191888</v>
+        <v>-3.503291807965401</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1053362722412948</v>
+        <v>4.973533887931161</v>
       </c>
       <c r="M21" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>curve dao token</t>
+          <t>cronos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1307677861</v>
+        <v>26571560696</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>629929521.8492606</v>
+        <v>2438706652.046941</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3030303030.299</v>
+        <v>30263013692</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4817161325707116</v>
+        <v>0.09177882624011829</v>
       </c>
       <c r="J22" t="n">
-        <v>36269525.48014412</v>
+        <v>15791638.1174898</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.9146228402189618</v>
+        <v>-3.39639791107929</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4823167015160085</v>
+        <v>0.0939707193687422</v>
       </c>
       <c r="M22" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>curve dao token</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>83733353.16057506</v>
+        <v>1310978944</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1469108246.962049</v>
+        <v>628612699.3910688</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>DEXE</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3030303030.299</v>
       </c>
       <c r="I23" t="n">
-        <v>17.54507841271742</v>
+        <v>0.4794987000119727</v>
       </c>
       <c r="J23" t="n">
-        <v>6024614.22433076</v>
+        <v>68658084.11028774</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.730145820512989</v>
+        <v>-4.168835234149452</v>
       </c>
       <c r="L23" t="n">
-        <v>17.60723545032629</v>
+        <v>0.4937295605262237</v>
       </c>
       <c r="M23" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dogecoin</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dogecoin</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>148646376383.7053</v>
+        <v>83733353.16057506</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://dogechain.info/chain/Dogecoin</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>25346141527.26547</v>
+        <v>1218685268.666914</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1705130131247783</v>
+        <v>14.5543588387037</v>
       </c>
       <c r="J24" t="n">
-        <v>408594154.5396917</v>
+        <v>6843756.842400834</v>
       </c>
       <c r="K24" t="n">
-        <v>1.307486242127688</v>
+        <v>-1.692543652993754</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1695868704628094</v>
+        <v>14.58411323381782</v>
       </c>
       <c r="M24" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>dogecoin</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>dogecoin</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1555739230.6061</v>
+        <v>148726896383.7053</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>http://dogechain.info/chain/Dogecoin</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>924549006.9580034</v>
+        <v>24928070555.01196</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>DOGE</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2100000000</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5942827620267753</v>
+        <v>0.1676097004720601</v>
       </c>
       <c r="J25" t="n">
-        <v>137928056.33557</v>
+        <v>623195572.959383</v>
       </c>
       <c r="K25" t="n">
-        <v>7.994812121087144</v>
+        <v>-0.6455314304213677</v>
       </c>
       <c r="L25" t="n">
-        <v>0.590926346115156</v>
+        <v>0.1696651603321594</v>
       </c>
       <c r="M25" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5285937500</v>
+        <v>1556969728.9434</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1974168246.487428</v>
+        <v>1205158133.149357</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2100000000</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3734755181058095</v>
+        <v>0.7740408247803308</v>
       </c>
       <c r="J26" t="n">
-        <v>67914321.77166234</v>
+        <v>204665237.8992803</v>
       </c>
       <c r="K26" t="n">
-        <v>1.185924762527508</v>
+        <v>-3.989161208637378</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3668450345000519</v>
+        <v>0.7876789689792838</v>
       </c>
       <c r="M26" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ethena usde</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5247294871.915874</v>
+        <v>5553125000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>etherscan.io</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5247501502.827567</v>
+        <v>1762693781.182519</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.000039378559188</v>
+        <v>0.3174237535050119</v>
       </c>
       <c r="J27" t="n">
-        <v>28905968.4831256</v>
+        <v>111696706.9693745</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0284599143268554</v>
+        <v>3.295471884774829</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.3181119040936916</v>
       </c>
       <c r="M27" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>ethena usde</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>120654453.5456346</v>
+        <v>5235230043.685924</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://etherscan.io/</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>220337252974.808</v>
+        <v>5230008555.208168</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1826.184168920634</v>
+        <v>0.999002624825617</v>
       </c>
       <c r="J28" t="n">
-        <v>4175180210.79431</v>
+        <v>38483826.80865458</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4008498122672161</v>
+        <v>-0.0447060327997902</v>
       </c>
       <c r="L28" t="n">
-        <v>1822.546487692312</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ethereum classic</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>151323700.0354662</v>
+        <v>120669506.1018684</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>https://etherscan.io/</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2519332462.853556</v>
+        <v>215249874413.7835</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>210700000</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>16.64863112825745</v>
+        <v>1783.796763302164</v>
       </c>
       <c r="J29" t="n">
-        <v>22675359.03396944</v>
+        <v>4763992153.694935</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6334265588766032</v>
+        <v>-0.8931995113489224</v>
       </c>
       <c r="L29" t="n">
-        <v>16.67357451152573</v>
+        <v>1806.563967465623</v>
       </c>
       <c r="M29" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ethereum name service</t>
+          <t>ethereum classic</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>35599404.04</v>
+        <v>151402073.8391831</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>569217007.7225569</v>
+        <v>2410455043.483909</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>100000000</v>
+        <v>210700000</v>
       </c>
       <c r="I30" t="n">
-        <v>15.98950946153415</v>
+        <v>15.92088524523288</v>
       </c>
       <c r="J30" t="n">
-        <v>22275579.4299546</v>
+        <v>27487333.77962328</v>
       </c>
       <c r="K30" t="n">
-        <v>1.688083321713962</v>
+        <v>-1.254207686891562</v>
       </c>
       <c r="L30" t="n">
-        <v>15.9153295850566</v>
+        <v>16.14160364923913</v>
       </c>
       <c r="M30" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="31">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1444885033.765069</v>
+        <v>1430862496.359953</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2015,19 +2015,19 @@
         <v>3175000000</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5016961922795378</v>
+        <v>0.4968272556805392</v>
       </c>
       <c r="J31" t="n">
-        <v>69961352.40380713</v>
+        <v>72630151.69370089</v>
       </c>
       <c r="K31" t="n">
-        <v>2.751666205628618</v>
+        <v>-1.936947175323492</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4916392583513938</v>
+        <v>0.5032590663798377</v>
       </c>
       <c r="M31" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="32">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1202451897.854906</v>
+        <v>1081287431.203232</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2066,19 +2066,19 @@
         <v>2630547141</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4771634515297247</v>
+        <v>0.4290823139695365</v>
       </c>
       <c r="J32" t="n">
-        <v>51970838.50330552</v>
+        <v>51391389.23181084</v>
       </c>
       <c r="K32" t="n">
-        <v>2.026125840427952</v>
+        <v>-1.764968235061504</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4731253256999419</v>
+        <v>0.4404426166690381</v>
       </c>
       <c r="M32" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="33">
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>646157090</v>
+        <v>647198730</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1794346876.414898</v>
+        <v>1733507718.74659</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2117,19 +2117,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.776951463017913</v>
+        <v>2.678478245386221</v>
       </c>
       <c r="J33" t="n">
-        <v>47300983.93084389</v>
+        <v>90962677.62420985</v>
       </c>
       <c r="K33" t="n">
-        <v>1.642440558093933</v>
+        <v>-3.147689199876576</v>
       </c>
       <c r="L33" t="n">
-        <v>2.751055996748729</v>
+        <v>2.742534956038106</v>
       </c>
       <c r="M33" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="34">
@@ -2145,11 +2145,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2588088088.167816</v>
+        <v>2188129088.971388</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2583280325.353663</v>
+        <v>2167216976.160685</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9981423496224364</v>
+        <v>0.9904429254580528</v>
       </c>
       <c r="J34" t="n">
-        <v>868389933.0918236</v>
+        <v>949369520.8173616</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0511699295400844</v>
+        <v>-0.2692460873594036</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9981270091527032</v>
+        <v>0.9954563020431531</v>
       </c>
       <c r="M34" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="35">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>815748307.4967141</v>
+        <v>793870937.8793805</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2219,19 +2219,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0133765053946175</v>
+        <v>0.0130177639175995</v>
       </c>
       <c r="J35" t="n">
-        <v>8916528.833656752</v>
+        <v>13230599.43450272</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.468759696276288</v>
+        <v>-2.219944112371096</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0134568020841853</v>
+        <v>0.0133626581849649</v>
       </c>
       <c r="M35" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="36">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>566159850.6601783</v>
+        <v>529624400.140036</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2270,19 +2270,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>5.88117947951e-05</v>
+        <v>5.50165496603e-05</v>
       </c>
       <c r="J36" t="n">
-        <v>38820718.34533829</v>
+        <v>32122758.05205028</v>
       </c>
       <c r="K36" t="n">
-        <v>1.875961871518552</v>
+        <v>-1.419944596513487</v>
       </c>
       <c r="L36" t="n">
-        <v>5.81744515543e-05</v>
+        <v>5.62182980995e-05</v>
       </c>
       <c r="M36" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="37">
@@ -2298,11 +2298,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1572540589.319017</v>
+        <v>1574016688.191111</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>604688115.988225</v>
+        <v>576745506.6377685</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2321,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3845294169799987</v>
+        <v>0.3664163861569823</v>
       </c>
       <c r="J37" t="n">
-        <v>7361446.898246755</v>
+        <v>4827969.633872594</v>
       </c>
       <c r="K37" t="n">
-        <v>1.82627680308506</v>
+        <v>-1.606893891498911</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3827218753583948</v>
+        <v>0.3728635525243774</v>
       </c>
       <c r="M37" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="38">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>43759805521.58257</v>
+        <v>43851266304.44282</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>682073294.9507409</v>
+        <v>643745590.7862873</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2372,19 +2372,19 @@
         <v>50000000000</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0155867533418159</v>
+        <v>0.0146802052719984</v>
       </c>
       <c r="J38" t="n">
-        <v>28214455.61478801</v>
+        <v>14944661.68551454</v>
       </c>
       <c r="K38" t="n">
-        <v>3.789579092831442</v>
+        <v>-2.995672586171094</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0154614354430189</v>
+        <v>0.0150056690665242</v>
       </c>
       <c r="M38" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="39">
@@ -2400,11 +2400,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>85826705.19218351</v>
+        <v>85826595.39596003</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1917352673.083153</v>
+        <v>1902954098.709694</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2423,19 +2423,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>22.33981449934271</v>
+        <v>22.17207952768529</v>
       </c>
       <c r="J39" t="n">
-        <v>5788947.73221566</v>
+        <v>7142654.373977983</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4061115203931678</v>
+        <v>0.6385761171853716</v>
       </c>
       <c r="L39" t="n">
-        <v>22.39558132094913</v>
+        <v>22.39170126659385</v>
       </c>
       <c r="M39" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="40">
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>7217873319.067986</v>
+        <v>6773147434.836636</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2474,1722 +2474,1722 @@
         <v>50000000000</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1709610606247602</v>
+        <v>0.1604273749400004</v>
       </c>
       <c r="J40" t="n">
-        <v>72366710.88913877</v>
+        <v>67447014.09316204</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7944873219921624</v>
+        <v>-3.279211602053874</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1715412438448525</v>
+        <v>0.1630219999438559</v>
       </c>
       <c r="M40" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>179760925.5581076</v>
+        <v>333928180</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>584083082.9055908</v>
+        <v>3866680214.160154</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>223000000</v>
+        <v>1000000000</v>
       </c>
       <c r="I41" t="n">
-        <v>3.249221604151044</v>
+        <v>11.57937678143891</v>
       </c>
       <c r="J41" t="n">
-        <v>4369255.52311417</v>
+        <v>19449675.56338987</v>
       </c>
       <c r="K41" t="n">
-        <v>4.37365935999357</v>
+        <v>0.3249085780824038</v>
       </c>
       <c r="L41" t="n">
-        <v>3.221984526973551</v>
+        <v>11.87710455584501</v>
       </c>
       <c r="M41" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>immutable x</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>333928180</v>
+        <v>1768317543.39</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4237394546.089977</v>
+        <v>756586661.239606</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="I42" t="n">
-        <v>12.6895386489693</v>
+        <v>0.4278567862812533</v>
       </c>
       <c r="J42" t="n">
-        <v>16335899.88031006</v>
+        <v>24715617.57903511</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.250862264739026</v>
+        <v>-6.625807085239506</v>
       </c>
       <c r="L42" t="n">
-        <v>12.66206611765254</v>
+        <v>0.4418055321295572</v>
       </c>
       <c r="M42" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>immutable x</t>
+          <t>injective</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1768317543.39</v>
+        <v>98970935.41</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>962507580.9806228</v>
+        <v>802426773.4879464</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2000000000</v>
+        <v>100000000</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5443069795798227</v>
+        <v>8.107701217168342</v>
       </c>
       <c r="J43" t="n">
-        <v>9130288.708893213</v>
+        <v>31509008.76271044</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.1867011166812788</v>
+        <v>-2.397732842722908</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5496917541088888</v>
+        <v>8.280880334009206</v>
       </c>
       <c r="M43" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>injective</t>
+          <t>internet computer</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>98970935.41</v>
+        <v>482992475.5035915</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>875455769.9508352</v>
+        <v>2409718460.65511</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>100000000</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.845584477141148</v>
+        <v>4.989142860129695</v>
       </c>
       <c r="J44" t="n">
-        <v>46204096.00690909</v>
+        <v>33376880.41102552</v>
       </c>
       <c r="K44" t="n">
-        <v>1.366486565803456</v>
+        <v>-2.771392425561876</v>
       </c>
       <c r="L44" t="n">
-        <v>8.793450770371054</v>
+        <v>5.061314097011906</v>
       </c>
       <c r="M44" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>internet computer</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>482076964.6058819</v>
+        <v>3707948285</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2584064946.91233</v>
+        <v>608386041.1970594</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>5.360274679427819</v>
+        <v>0.1640761937425617</v>
       </c>
       <c r="J45" t="n">
-        <v>29953830.68369002</v>
+        <v>8486162.059602298</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5558203395464523</v>
+        <v>-1.677032117492285</v>
       </c>
       <c r="L45" t="n">
-        <v>5.358238301388973</v>
+        <v>0.166559372400748</v>
       </c>
       <c r="M45" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3688810566</v>
+        <v>313001722</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>639076930.0121099</v>
+        <v>538878999.934909</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1732474244957229</v>
+        <v>1.721648674938948</v>
       </c>
       <c r="J46" t="n">
-        <v>8381385.312455789</v>
+        <v>24009970.13122344</v>
       </c>
       <c r="K46" t="n">
-        <v>1.242777017823846</v>
+        <v>-8.88568850614714</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1733952818441017</v>
+        <v>1.824134897924973</v>
       </c>
       <c r="M46" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>310420802.2</v>
+        <v>2690911111.1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>689328171.0181694</v>
+        <v>1048220976.685413</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>3000000000</v>
       </c>
       <c r="I47" t="n">
-        <v>2.220624926334816</v>
+        <v>0.3895412867268284</v>
       </c>
       <c r="J47" t="n">
-        <v>13438681.41140014</v>
+        <v>30525484.15626832</v>
       </c>
       <c r="K47" t="n">
-        <v>2.882332232153635</v>
+        <v>-0.4668523896222753</v>
       </c>
       <c r="L47" t="n">
-        <v>2.189567160745052</v>
+        <v>0.3993753520693362</v>
       </c>
       <c r="M47" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2690911111.1</v>
+        <v>5966455361.82</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1311417512.585624</v>
+        <v>636422358.7523525</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>3000000000</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4873507367731436</v>
+        <v>0.1066667426735292</v>
       </c>
       <c r="J48" t="n">
-        <v>31178267.68988235</v>
+        <v>10639757.05264035</v>
       </c>
       <c r="K48" t="n">
-        <v>5.572376447188307</v>
+        <v>-4.790232679271592</v>
       </c>
       <c r="L48" t="n">
-        <v>0.4799571468436546</v>
+        <v>0.1096319499769478</v>
       </c>
       <c r="M48" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5966455361.82</v>
+        <v>25974676335.93573</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>618044828.8354813</v>
+        <v>1662632166.518711</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>28704026601</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1035866006457398</v>
+        <v>0.0640097356754538</v>
       </c>
       <c r="J49" t="n">
-        <v>3904182.03703015</v>
+        <v>32772280.66015899</v>
       </c>
       <c r="K49" t="n">
-        <v>1.640611721770256</v>
+        <v>-1.852284052527521</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1031842549244072</v>
+        <v>0.0649191412563727</v>
       </c>
       <c r="M49" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>kucoin token</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>25943375617.3953</v>
+        <v>125043917.8513356</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1672487758.068358</v>
+        <v>1250314144.498425</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>28704026601</v>
+        <v>200000000</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0644668520678912</v>
+        <v>9.999000079195538</v>
       </c>
       <c r="J50" t="n">
-        <v>33291440.47532743</v>
+        <v>763044.3467247504</v>
       </c>
       <c r="K50" t="n">
-        <v>2.293845626657552</v>
+        <v>-1.866571445366182</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0647827366234392</v>
+        <v>10.12768296474146</v>
       </c>
       <c r="M50" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>kucoin token</t>
+          <t>lido dao</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>122543917.8513356</v>
+        <v>897877243.8587133</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1358888696.507099</v>
+        <v>739977781.4038349</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>200000000</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>11.08899340198701</v>
+        <v>0.8241413695080519</v>
       </c>
       <c r="J51" t="n">
-        <v>428749.4086693298</v>
+        <v>23403223.0184238</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4835362915814315</v>
+        <v>-1.135043180792944</v>
       </c>
       <c r="L51" t="n">
-        <v>11.0754407970238</v>
+        <v>0.8354282412157075</v>
       </c>
       <c r="M51" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>lido dao</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>897877243.8587133</v>
+        <v>75558468.3040892</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>http://explorer.litecoin.net/chain/Litecoin</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>781963907.7790666</v>
+        <v>6214608667.269344</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>84000000</v>
       </c>
       <c r="I52" t="n">
-        <v>0.870902913652764</v>
+        <v>82.24900274921285</v>
       </c>
       <c r="J52" t="n">
-        <v>26585468.32179833</v>
+        <v>142683014.0133622</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0611823226060997</v>
+        <v>-2.656155003461507</v>
       </c>
       <c r="L52" t="n">
-        <v>0.8683877792521563</v>
+        <v>83.97844212560331</v>
       </c>
       <c r="M52" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>75558468.3040892</v>
+        <v>848074.4183746701</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://explorer.litecoin.net/chain/Litecoin</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6527147267.357023</v>
+        <v>1119230092.43186</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>84000000</v>
+        <v>1000000</v>
       </c>
       <c r="I53" t="n">
-        <v>86.38538358252791</v>
+        <v>1319.730990797787</v>
       </c>
       <c r="J53" t="n">
-        <v>151680343.9018265</v>
+        <v>24798009.12743944</v>
       </c>
       <c r="K53" t="n">
-        <v>1.145384154730262</v>
+        <v>-1.66121331525077</v>
       </c>
       <c r="L53" t="n">
-        <v>85.89504657544688</v>
+        <v>1339.940818081589</v>
       </c>
       <c r="M53" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>848074.4183746701</v>
+        <v>3364694382.836841</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1083740388.234232</v>
+        <v>2472288237.151125</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1000000</v>
+        <v>6219316795</v>
       </c>
       <c r="I54" t="n">
-        <v>1277.883596950389</v>
+        <v>0.7347734907996873</v>
       </c>
       <c r="J54" t="n">
-        <v>24821833.816532</v>
+        <v>185994015.8437338</v>
       </c>
       <c r="K54" t="n">
-        <v>-2.356331360962542</v>
+        <v>0.784415450208887</v>
       </c>
       <c r="L54" t="n">
-        <v>1293.042130194744</v>
+        <v>0.7360143862500346</v>
       </c>
       <c r="M54" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>mantra</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3364694382.836841</v>
+        <v>974778351.8199997</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2667981155.819436</v>
+        <v>6090681214.871244</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>6219316795</v>
+        <v>888888888</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7929341723957728</v>
+        <v>6.248272957128552</v>
       </c>
       <c r="J55" t="n">
-        <v>59451730.61348396</v>
+        <v>21351668.07512131</v>
       </c>
       <c r="K55" t="n">
-        <v>-1.316521251585435</v>
+        <v>-0.9263191135812112</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8062418143289097</v>
+        <v>6.244977744524873</v>
       </c>
       <c r="M55" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mantra</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>974778351.8199997</v>
+        <v>18446744.07370955</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>6111778234.669128</v>
+        <v>3989850292.493952</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>888888888</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>6.269915846261751</v>
+        <v>216.2902177506934</v>
       </c>
       <c r="J56" t="n">
-        <v>33448889.49836635</v>
+        <v>35545814.27645268</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5536950603107917</v>
+        <v>0.08060778817452451</v>
       </c>
       <c r="L56" t="n">
-        <v>6.220807532174547</v>
+        <v>216.4991796694004</v>
       </c>
       <c r="M56" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>18446744.07370955</v>
+        <v>2450000000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4005469081.424708</v>
+        <v>910384172.1294544</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I57" t="n">
-        <v>217.1369139952093</v>
+        <v>0.3715853763793692</v>
       </c>
       <c r="J57" t="n">
-        <v>29658756.07239053</v>
+        <v>29073474.04733633</v>
       </c>
       <c r="K57" t="n">
-        <v>1.703168668047567</v>
+        <v>-2.215725910116602</v>
       </c>
       <c r="L57" t="n">
-        <v>216.3557465248735</v>
+        <v>0.3780588968185881</v>
       </c>
       <c r="M57" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2450000000</v>
+        <v>5365382702.664872</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1065454198.640723</v>
+        <v>5364356996.471352</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>MOVE</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>10000000000</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.4348792647513155</v>
+        <v>0.999808828885028</v>
       </c>
       <c r="J58" t="n">
-        <v>42363835.14692796</v>
+        <v>48910932.99860603</v>
       </c>
       <c r="K58" t="n">
-        <v>-2.545774257026745</v>
+        <v>0.0120848213613963</v>
       </c>
       <c r="L58" t="n">
-        <v>0.4467783804775426</v>
+        <v>1.000086609001397</v>
       </c>
       <c r="M58" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>near protocol</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5365382702.664872</v>
+        <v>1199614769</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5364602397.969604</v>
+        <v>2918659484.347632</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.999854566814986</v>
+        <v>2.432997291939502</v>
       </c>
       <c r="J59" t="n">
-        <v>56039650.71994124</v>
+        <v>66838487.19175484</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0811486901188504</v>
+        <v>-1.698420156188657</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9994604056215556</v>
+        <v>2.478514907526306</v>
       </c>
       <c r="M59" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>near protocol</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1198396448</v>
+        <v>646145839.5746847</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3170749559.195848</v>
+        <v>673046854.825256</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>2.645826900177735</v>
+        <v>1.041633039482663</v>
       </c>
       <c r="J60" t="n">
-        <v>94372482.69713272</v>
+        <v>3417671.689136991</v>
       </c>
       <c r="K60" t="n">
-        <v>4.294388316255501</v>
+        <v>-4.125944654107984</v>
       </c>
       <c r="L60" t="n">
-        <v>2.64461989565272</v>
+        <v>1.068182935750369</v>
       </c>
       <c r="M60" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>trump official</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>646145839.5746847</v>
+        <v>199999426.572416</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>692716043.1744293</v>
+        <v>1834176331.883903</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>999999993.45</v>
       </c>
       <c r="I61" t="n">
-        <v>1.072073827218943</v>
+        <v>9.170907953677473</v>
       </c>
       <c r="J61" t="n">
-        <v>3009027.226762121</v>
+        <v>50139210.6667042</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.3644110207939468</v>
+        <v>-1.98624695090712</v>
       </c>
       <c r="L61" t="n">
-        <v>1.075297789324605</v>
+        <v>9.321678613283449</v>
       </c>
       <c r="M61" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>trump official</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>199999429.080876</v>
+        <v>60000000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2043751583.772997</v>
+        <v>3045191332.409575</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>999999993.45</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>10.21878708936985</v>
+        <v>50.75318887349293</v>
       </c>
       <c r="J62" t="n">
-        <v>63012161.63716096</v>
+        <v>9930430.732458659</v>
       </c>
       <c r="K62" t="n">
-        <v>1.807508299837799</v>
+        <v>4.909249986861529</v>
       </c>
       <c r="L62" t="n">
-        <v>10.13183373462756</v>
+        <v>50.45040183024104</v>
       </c>
       <c r="M62" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>ondo</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>60000000</v>
+        <v>3159107529</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2905169116.516918</v>
+        <v>2537686913.828478</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>48.41948527528197</v>
+        <v>0.8032923509355095</v>
       </c>
       <c r="J63" t="n">
-        <v>1891567.533318829</v>
+        <v>86411993.99518816</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3710225429166277</v>
+        <v>-2.144841190673296</v>
       </c>
       <c r="L63" t="n">
-        <v>48.41781257138272</v>
+        <v>0.8145565800157639</v>
       </c>
       <c r="M63" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ondo</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3159107529</v>
+        <v>1620705846</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2536838011.83516</v>
+        <v>1119318979.06826</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8030236351714761</v>
+        <v>0.6906367258628748</v>
       </c>
       <c r="J64" t="n">
-        <v>74670341.46201007</v>
+        <v>41436927.40642296</v>
       </c>
       <c r="K64" t="n">
-        <v>1.134568294114904</v>
+        <v>-2.536468412314005</v>
       </c>
       <c r="L64" t="n">
-        <v>0.7993976751103486</v>
+        <v>0.7047939009795186</v>
       </c>
       <c r="M64" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>optimism-ethereum</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1620705846</v>
+        <v>295586537.9426779</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1226760960.995248</v>
+        <v>532855478.9560041</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>450000000</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7569300524354673</v>
+        <v>1.802705504333012</v>
       </c>
       <c r="J65" t="n">
-        <v>50726490.34085599</v>
+        <v>18432518.89295099</v>
       </c>
       <c r="K65" t="n">
-        <v>-1.307577964728304</v>
+        <v>-0.8349233935220821</v>
       </c>
       <c r="L65" t="n">
-        <v>0.760640178133232</v>
+        <v>1.822553256857612</v>
       </c>
       <c r="M65" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>pax gold</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>301827011.9503255</v>
+        <v>210371.22</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>604192008.2020433</v>
+        <v>643367637.3628504</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>450000000</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>2.001782425959545</v>
+        <v>3058.2493050278</v>
       </c>
       <c r="J66" t="n">
-        <v>38962922.10628068</v>
+        <v>23951888.66607256</v>
       </c>
       <c r="K66" t="n">
-        <v>0.8378996939706946</v>
+        <v>0.1688879733228264</v>
       </c>
       <c r="L66" t="n">
-        <v>2.008783935045072</v>
+        <v>3051.190296174291</v>
       </c>
       <c r="M66" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pax gold</t>
+          <t>paypal usd</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>210371.22</v>
+        <v>733086867.397647</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>658079319.4493791</v>
+        <v>732126248.4774195</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>3128.181314199628</v>
+        <v>0.9986896247048628</v>
       </c>
       <c r="J67" t="n">
-        <v>43580887.03169716</v>
+        <v>8176622.355983415</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6020036812845043</v>
+        <v>-0.0423668897249277</v>
       </c>
       <c r="L67" t="n">
-        <v>3123.048867817353</v>
+        <v>0.9988854998180444</v>
       </c>
       <c r="M67" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>paypal usd</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>802871349.4263151</v>
+        <v>420689899653543.6</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>801762690.4410471</v>
+        <v>2942353997.07699</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PYUSD</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>420690000000000</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9986191324599388</v>
+        <v>6.9941160924e-06</v>
       </c>
       <c r="J68" t="n">
-        <v>7767613.375340574</v>
+        <v>397979808.5868431</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0457811745326145</v>
+        <v>-1.61748053832383</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9984507325612568</v>
+        <v>7.1667775663e-06</v>
       </c>
       <c r="M68" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>420689899653543.6</v>
+        <v>6817635541.724001</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2973819546.164363</v>
+        <v>4263408751.311755</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>420690000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="I69" t="n">
-        <v>7.0689112066e-06</v>
+        <v>0.6253500535808418</v>
       </c>
       <c r="J69" t="n">
-        <v>293202495.8599504</v>
+        <v>616324361.6737208</v>
       </c>
       <c r="K69" t="n">
-        <v>-1.685894081856246</v>
+        <v>19.36545188681406</v>
       </c>
       <c r="L69" t="n">
-        <v>7.1220496552e-06</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6773820584.991654</v>
+        <v>1522267060</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://blockexplorer.minepi.com/</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5237699589.282393</v>
+        <v>5957644230.707152</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>100000000000</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7732267962466041</v>
+        <v>3.913665602609277</v>
       </c>
       <c r="J70" t="n">
-        <v>85324025.19705926</v>
+        <v>74264410.72325991</v>
       </c>
       <c r="K70" t="n">
-        <v>-4.474457624603769</v>
+        <v>-3.854003088583754</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>4.012954973523511</v>
       </c>
       <c r="M70" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>pol (prev. matic)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1522267060</v>
+        <v>10398846835.30775</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>6242045410.163404</v>
+        <v>1960010209.959289</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>4.100492991133504</v>
+        <v>0.1884834194599697</v>
       </c>
       <c r="J71" t="n">
-        <v>65207913.03550316</v>
+        <v>21209548.97913812</v>
       </c>
       <c r="K71" t="n">
-        <v>1.05667824108237</v>
+        <v>-1.305271875709002</v>
       </c>
       <c r="L71" t="n">
-        <v>4.085538335822255</v>
+        <v>0.1898955972870207</v>
       </c>
       <c r="M71" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>pol (prev. matic)</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10392099602.65343</v>
+        <v>12072738</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2132526451.965802</v>
+        <v>818843419.3602854</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>14881364</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2052065062406928</v>
+        <v>67.82582537285953</v>
       </c>
       <c r="J72" t="n">
-        <v>29699721.94085203</v>
+        <v>10327661.11935369</v>
       </c>
       <c r="K72" t="n">
-        <v>2.314403872115422</v>
+        <v>-0.9662436487499352</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2033455771216895</v>
+        <v>68.2135470360713</v>
       </c>
       <c r="M72" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>render</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>12072738</v>
+        <v>517716590.0562826</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>843164617.3574919</v>
+        <v>1614687515.518231</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>RENDER</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>14881364</v>
+        <v>644168762</v>
       </c>
       <c r="I73" t="n">
-        <v>69.84038064583956</v>
+        <v>3.118863769350512</v>
       </c>
       <c r="J73" t="n">
-        <v>8580615.045439437</v>
+        <v>36736600.62123176</v>
       </c>
       <c r="K73" t="n">
-        <v>1.836111860678916</v>
+        <v>-2.849090260497088</v>
       </c>
       <c r="L73" t="n">
-        <v>69.66498635893893</v>
+        <v>3.209004812553303</v>
       </c>
       <c r="M73" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>517716590.0562826</v>
+        <v>4882361111</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4197,1101 +4197,1101 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1829675548.528838</v>
+        <v>794629792.2037613</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>RENDER</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>644168762</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>3.534125781694437</v>
+        <v>0.1627552272635987</v>
       </c>
       <c r="J74" t="n">
-        <v>41878757.44648113</v>
+        <v>27470693.55163426</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.0047057772223307</v>
+        <v>-0.5594457141081137</v>
       </c>
       <c r="L74" t="n">
-        <v>3.51809970959377</v>
+        <v>0.1645961904243627</v>
       </c>
       <c r="M74" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>shiba inu</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4882361111</v>
+        <v>589250627619579.1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>876452745.498787</v>
+        <v>7147241252.32664</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>SEI</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>589552695333683</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1795141173650863</v>
+        <v>1.21293740173e-05</v>
       </c>
       <c r="J75" t="n">
-        <v>31264594.42849451</v>
+        <v>56112559.28668002</v>
       </c>
       <c r="K75" t="n">
-        <v>0.7806243798684325</v>
+        <v>-0.931341535920317</v>
       </c>
       <c r="L75" t="n">
-        <v>0.1790127169461673</v>
+        <v>1.22630618028e-05</v>
       </c>
       <c r="M75" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>shiba-inu</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>shiba inu</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>589250806511191.1</v>
+        <v>514580874.0812798</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
+          <t>https://explorer.solana.com/</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>7412444842.72647</v>
+        <v>60631972808.48112</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>589552695333683</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1.25794394523e-05</v>
+        <v>117.827878692017</v>
       </c>
       <c r="J76" t="n">
-        <v>66840713.95056733</v>
+        <v>1860231056.560647</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.2454300059626578</v>
+        <v>-1.232333742348855</v>
       </c>
       <c r="L76" t="n">
-        <v>1.26198953745e-05</v>
+        <v>121.0473337320652</v>
       </c>
       <c r="M76" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>solana</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>solana</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>512293263.8307307</v>
+        <v>1520164889.82529</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>64667504451.95541</v>
+        <v>904876589.9150746</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1818000000</v>
       </c>
       <c r="I77" t="n">
-        <v>126.2314166858195</v>
+        <v>0.59524897329991</v>
       </c>
       <c r="J77" t="n">
-        <v>953154026.3852154</v>
+        <v>14874209.77132648</v>
       </c>
       <c r="K77" t="n">
-        <v>1.108056804897444</v>
+        <v>-0.3470764063997309</v>
       </c>
       <c r="L77" t="n">
-        <v>124.9012036470155</v>
+        <v>0.6030549256912509</v>
       </c>
       <c r="M77" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1519244275.49944</v>
+        <v>30779409432.82857</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://explorer.stacks.co/</t>
+          <t>https://dashboard.stellar.org/</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>953591446.119048</v>
+        <v>7740402090.25596</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1818000000</v>
+        <v>50001806812</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6276748653902691</v>
+        <v>0.2514798767386432</v>
       </c>
       <c r="J78" t="n">
-        <v>12850981.4572103</v>
+        <v>66971367.11595704</v>
       </c>
       <c r="K78" t="n">
-        <v>0.8690354315065516</v>
+        <v>-2.742997785374776</v>
       </c>
       <c r="L78" t="n">
-        <v>0.6187259611593025</v>
+        <v>0.2576783574574168</v>
       </c>
       <c r="M78" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>steth</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>lido staked eth</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>30787176939.11807</v>
+        <v>9370151.382689711</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://dashboard.stellar.org/</t>
+          <t>https://etherscan.io/token/0xae7ab96520de3a18e5e111b5eaab095312d7fe84</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>8296295563.330326</v>
+        <v>16756059889.45142</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>STETH</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>50001806812</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2694724358695287</v>
+        <v>1788.237906209962</v>
       </c>
       <c r="J79" t="n">
-        <v>48242342.11522084</v>
+        <v>4216204.60503808</v>
       </c>
       <c r="K79" t="n">
-        <v>1.500689011004717</v>
+        <v>-0.9321105963508119</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2684348841122614</v>
+        <v>1801.204896858358</v>
       </c>
       <c r="M79" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>steth</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>lido staked eth</t>
+          <t>story</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>9369845.35495159</v>
+        <v>259183351</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xae7ab96520de3a18e5e111b5eaab095312d7fe84</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>16968716904.44786</v>
+        <v>1091841682.115349</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>STETH</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1810.992205488276</v>
+        <v>4.212622754905845</v>
       </c>
       <c r="J80" t="n">
-        <v>4986223.602195241</v>
+        <v>41565645.44375321</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.3024847172370749</v>
+        <v>1.604045212039249</v>
       </c>
       <c r="L80" t="n">
-        <v>1821.663329530742</v>
+        <v>4.211151376267179</v>
       </c>
       <c r="M80" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>story</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>258757414</v>
+        <v>3249982900.458888</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1367680428.03329</v>
+        <v>7154162377.151512</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I81" t="n">
-        <v>5.285570012820155</v>
+        <v>2.201292313304592</v>
       </c>
       <c r="J81" t="n">
-        <v>35726625.20577305</v>
+        <v>425654201.0593813</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.8162029802605713</v>
+        <v>-1.911265638921182</v>
       </c>
       <c r="L81" t="n">
-        <v>5.318484335299077</v>
+        <v>2.250040159029848</v>
       </c>
       <c r="M81" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>tether</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>tether</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3169845047.483888</v>
+        <v>144086679997.8651</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>https://www.omniexplorer.info/asset/31</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>7517552122.125976</v>
+        <v>144158095118.3066</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>USDT</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>10000000000</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>2.371583471593713</v>
+        <v>1.000495639988669</v>
       </c>
       <c r="J82" t="n">
-        <v>524339592.9475638</v>
+        <v>20656337512.68986</v>
       </c>
       <c r="K82" t="n">
-        <v>4.186844680099367</v>
+        <v>0.07931970277161431</v>
       </c>
       <c r="L82" t="n">
-        <v>2.365315203446364</v>
+        <v>0.9996071452478295</v>
       </c>
       <c r="M82" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>tether</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tether</t>
+          <t>tether gold</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>144182349120.787</v>
+        <v>246524</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.omniexplorer.info/asset/31</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>144586473851.1635</v>
+        <v>751792096.1931798</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>USDT</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1.002802872423988</v>
+        <v>3049.569600498044</v>
       </c>
       <c r="J83" t="n">
-        <v>16889414674.71895</v>
+        <v>11438551.29664625</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0384470409738277</v>
+        <v>0.0705825650204422</v>
       </c>
       <c r="L83" t="n">
-        <v>1.000282287605321</v>
+        <v>3045.889664551644</v>
       </c>
       <c r="M83" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>tether gold</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>246524</v>
+        <v>1037953209.91073</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>767207208.6997688</v>
+        <v>677264286.4946783</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>3112.099465771157</v>
+        <v>0.6524998237183802</v>
       </c>
       <c r="J84" t="n">
-        <v>5665416.53406998</v>
+        <v>5356275.53529322</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.09858963847454021</v>
+        <v>0.1310480396504593</v>
       </c>
       <c r="L84" t="n">
-        <v>3101.370795021528</v>
+        <v>0.6564722672672684</v>
       </c>
       <c r="M84" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the graph</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1036889881.760222</v>
+        <v>9775189789.318211</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>679515144.1914803</v>
+        <v>788212152.4479779</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.6553397387174199</v>
+        <v>0.0806339487453525</v>
       </c>
       <c r="J85" t="n">
-        <v>4594132.284991864</v>
+        <v>11994035.99479834</v>
       </c>
       <c r="K85" t="n">
-        <v>0.2383523717431396</v>
+        <v>-2.513960498160619</v>
       </c>
       <c r="L85" t="n">
-        <v>0.6547139980460938</v>
+        <v>0.0830353936765643</v>
       </c>
       <c r="M85" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>the graph</t>
+          <t>the sandbox</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>9775189789.318211</v>
+        <v>2481357126.223322</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>881726841.4225415</v>
+        <v>646634535.3639997</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0902004831032584</v>
+        <v>0.2605971258753032</v>
       </c>
       <c r="J86" t="n">
-        <v>6852152.396004832</v>
+        <v>11757671.02290601</v>
       </c>
       <c r="K86" t="n">
-        <v>2.281950219041909</v>
+        <v>-1.321570990706839</v>
       </c>
       <c r="L86" t="n">
-        <v>0.08945963390037601</v>
+        <v>0.2634073534361371</v>
       </c>
       <c r="M86" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>the sandbox</t>
+          <t>theta network</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2481357126.223322</v>
+        <v>1000000000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>674628377.5776187</v>
+        <v>768564979.5110044</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1000000000</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2718787918305082</v>
+        <v>0.7685649795110046</v>
       </c>
       <c r="J87" t="n">
-        <v>11697732.26775693</v>
+        <v>10606949.1279643</v>
       </c>
       <c r="K87" t="n">
-        <v>1.729624697153837</v>
+        <v>-1.516495130291954</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2711383001115169</v>
+        <v>0.7848743773049209</v>
       </c>
       <c r="M87" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>theta network</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1000000000</v>
+        <v>2473132255.316453</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>825090255.409063</v>
+        <v>8008955118.083139</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1000000000</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.8250902554090631</v>
+        <v>3.238385290906468</v>
       </c>
       <c r="J88" t="n">
-        <v>9150545.132609876</v>
+        <v>83505107.18147361</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.322348331695338</v>
+        <v>-5.047128884666046</v>
       </c>
       <c r="L88" t="n">
-        <v>0.8296908215157212</v>
+        <v>3.34157180954784</v>
       </c>
       <c r="M88" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2484542062.423414</v>
+        <v>94979760468.11975</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://tronscan.org/#/</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>9643303953.745028</v>
+        <v>22589315819.80436</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>3.881320465284851</v>
+        <v>0.2378329415495477</v>
       </c>
       <c r="J89" t="n">
-        <v>120415195.62304</v>
+        <v>176642643.8344768</v>
       </c>
       <c r="K89" t="n">
-        <v>2.948893802871485</v>
+        <v>-0.8830793462752332</v>
       </c>
       <c r="L89" t="n">
-        <v>3.781216470810416</v>
+        <v>0.2380715909542628</v>
       </c>
       <c r="M89" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>tron</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>tron</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>94994333997.78676</v>
+        <v>628494054.71</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>22064228294.13318</v>
+        <v>3645016473.762324</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2322688876859461</v>
+        <v>5.799603745566391</v>
       </c>
       <c r="J90" t="n">
-        <v>208148562.0900334</v>
+        <v>51979416.85489579</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.9697758923119344</v>
+        <v>-0.9393903887736708</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2315697321919429</v>
+        <v>5.879013162523592</v>
       </c>
       <c r="M90" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>unus sed leo</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>628494054.71</v>
+        <v>923789528.9</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3752579971.891531</v>
+        <v>8287333804.12958</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>5.970748559623286</v>
+        <v>8.971019420405966</v>
       </c>
       <c r="J91" t="n">
-        <v>39387509.13147256</v>
+        <v>3845428.680446561</v>
       </c>
       <c r="K91" t="n">
-        <v>0.6755184647686651</v>
+        <v>-5.29166204124281</v>
       </c>
       <c r="L91" t="n">
-        <v>5.973230614913674</v>
+        <v>8.934687658808155</v>
       </c>
       <c r="M91" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>usd-coin</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>unus sed leo</t>
+          <t>usdc</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>923836227.9</v>
+        <v>60542738459.47311</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
+          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>8872512198.864807</v>
+        <v>60580848078.27862</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>9.603988164691463</v>
+        <v>1.000629466386477</v>
       </c>
       <c r="J92" t="n">
-        <v>4810508.733904231</v>
+        <v>4122822778.05957</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2886441149277279</v>
+        <v>0.0679581576485007</v>
       </c>
       <c r="L92" t="n">
-        <v>9.540369580402579</v>
+        <v>1.000036182480892</v>
       </c>
       <c r="M92" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>usd-coin</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>usdc</t>
+          <t>usual usd</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>60236504303.70195</v>
+        <v>824686961.8233137</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>60234813484.98527</v>
+        <v>822680424.6990434</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>USD0</t>
         </is>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.999971930331346</v>
+        <v>0.9975669105767913</v>
       </c>
       <c r="J93" t="n">
-        <v>2637758779.940614</v>
+        <v>11013306.97743724</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.0169607808786054</v>
+        <v>0.022308925885127</v>
       </c>
       <c r="L93" t="n">
-        <v>1.001492774493295</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>usual usd</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>898876668.3664446</v>
+        <v>85985041177</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>896443286.330442</v>
+        <v>1852770939.779766</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>USD0</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>86712634466</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9972928632796478</v>
+        <v>0.021547596121584</v>
       </c>
       <c r="J94" t="n">
-        <v>1348705.92</v>
+        <v>14190817.55367993</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.0437967857502329</v>
+        <v>-2.34473972305095</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>0.0220171524324217</v>
       </c>
       <c r="M94" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>wrapped bnb</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>85985041177</v>
+        <v>1582884.53984804</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://explore.veforge.com/</t>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1960605547.507264</v>
+        <v>962080899.7877512</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>WBNB</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>86712634466</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0228017050485719</v>
+        <v>607.8023226382089</v>
       </c>
       <c r="J95" t="n">
-        <v>18629481.14336056</v>
+        <v>6967505.924799114</v>
       </c>
       <c r="K95" t="n">
-        <v>0.5150139617779848</v>
+        <v>-0.1297761319785972</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0229428379613368</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="96">
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>6140514860.934415</v>
+        <v>6037505674.574191</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5330,19 +5330,19 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1819.240617330788</v>
+        <v>1788.722248752782</v>
       </c>
       <c r="J96" t="n">
-        <v>8084525.016666666</v>
+        <v>304266013.3694966</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.2476023654848287</v>
+        <v>-1.080830878870765</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="97">
@@ -5358,11 +5358,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1214684893.749747</v>
+        <v>1231343181.02401</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>958571455.1192458</v>
+        <v>909904018.3320904</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5381,19 +5381,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7891523637542934</v>
+        <v>0.7389524158288641</v>
       </c>
       <c r="J97" t="n">
-        <v>58323126.38765307</v>
+        <v>42066369.01726045</v>
       </c>
       <c r="K97" t="n">
-        <v>1.620227352026545</v>
+        <v>-2.337615482816074</v>
       </c>
       <c r="L97" t="n">
-        <v>0.785367336307166</v>
+        <v>0.754759685269319</v>
       </c>
       <c r="M97" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="98">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>10659986060.51545</v>
+        <v>10656411369.05735</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5432,19 +5432,19 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>82585.99572415206</v>
+        <v>82558.30155534192</v>
       </c>
       <c r="J98" t="n">
-        <v>14141420.48076533</v>
+        <v>182777986.7465205</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7056720712428559</v>
+        <v>-0.6268537507704208</v>
       </c>
       <c r="L98" t="n">
-        <v>82965.34921434565</v>
+        <v>83517.5575144928</v>
       </c>
       <c r="M98" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="99">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1049250389.066715</v>
+        <v>1070137974.746417</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5483,19 +5483,19 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0668625180513671</v>
+        <v>0.068193560278381</v>
       </c>
       <c r="J99" t="n">
-        <v>8205801.102839162</v>
+        <v>17348824.98690931</v>
       </c>
       <c r="K99" t="n">
-        <v>-1.868023916865724</v>
+        <v>1.481341000743523</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06753333978693719</v>
+        <v>0.0678749716024603</v>
       </c>
       <c r="M99" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="100">
@@ -5515,7 +5515,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>58205697378</v>
+        <v>58274974538</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>125766898323.9508</v>
+        <v>123856459652.5373</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5534,19 +5534,19 @@
         <v>100000000000</v>
       </c>
       <c r="I100" t="n">
-        <v>2.160731749457346</v>
+        <v>2.125379901655261</v>
       </c>
       <c r="J100" t="n">
-        <v>1135251352.909298</v>
+        <v>1162300559.78781</v>
       </c>
       <c r="K100" t="n">
-        <v>1.687407568823975</v>
+        <v>-0.2080418480644683</v>
       </c>
       <c r="L100" t="n">
-        <v>2.158241335171446</v>
+        <v>2.132780298124861</v>
       </c>
       <c r="M100" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="101">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -5574,7 +5574,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>578906400.6221349</v>
+        <v>603962021.5764953</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5585,19 +5585,19 @@
         <v>21000000</v>
       </c>
       <c r="I101" t="n">
-        <v>36.43941104530195</v>
+        <v>38.0165434970593</v>
       </c>
       <c r="J101" t="n">
-        <v>7281308.652083413</v>
+        <v>13761649.70162573</v>
       </c>
       <c r="K101" t="n">
-        <v>2.013113687103653</v>
+        <v>-5.494460739302349</v>
       </c>
       <c r="L101" t="n">
-        <v>36.10728176160907</v>
+        <v>39.67285059588422</v>
       </c>
       <c r="M101" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
   </sheetData>
